--- a/tables/crop_classifications/PT_PT_crop_classification_final.xlsx
+++ b/tables/crop_classifications/PT_PT_crop_classification_final.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\Europe-LAND\data\tables\crop_classifications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC21725B-21AC-4435-A3B1-DD3A4CC218D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F0D70F-1E24-4596-9CDD-544BAF6A9AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-29616" yWindow="6624" windowWidth="13824" windowHeight="7224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$318</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2185" uniqueCount="1035">
   <si>
     <t>crop_code</t>
   </si>
@@ -2600,6 +2601,534 @@
   </si>
   <si>
     <t>other_plants_harvested_green</t>
+  </si>
+  <si>
+    <t>267.0</t>
+  </si>
+  <si>
+    <t>CONSOCIAÇÕES ANUAIS E OUTRAS CULTURAS FORRAGEIRAS</t>
+  </si>
+  <si>
+    <t>266.0</t>
+  </si>
+  <si>
+    <t>FIXADORAS AZOTO</t>
+  </si>
+  <si>
+    <t>982.0</t>
+  </si>
+  <si>
+    <t>CABECEIRAS CULT. PERMANENTES -ÁREA ÚTIL</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>SUPERFÍCIE NÃO PASTOREÁVEL</t>
+  </si>
+  <si>
+    <t>89.0</t>
+  </si>
+  <si>
+    <t>ELEMENTO LINEAR ARROZ - ÁREA COMPROMISSO</t>
+  </si>
+  <si>
+    <t>168.0</t>
+  </si>
+  <si>
+    <t>ACEIRO F</t>
+  </si>
+  <si>
+    <t>NÊSPERA</t>
+  </si>
+  <si>
+    <t>280.0</t>
+  </si>
+  <si>
+    <t>CANA DE AÇÚCAR</t>
+  </si>
+  <si>
+    <t>GALERIA RIPÍCOLA F</t>
+  </si>
+  <si>
+    <t>TALUDE</t>
+  </si>
+  <si>
+    <t>34.0</t>
+  </si>
+  <si>
+    <t>HIDROPONIA</t>
+  </si>
+  <si>
+    <t>SABUGUEIRO</t>
+  </si>
+  <si>
+    <t>CARQUEJA</t>
+  </si>
+  <si>
+    <t>MARALFALFA/CAPIM</t>
+  </si>
+  <si>
+    <t>165.0</t>
+  </si>
+  <si>
+    <t>POVOAMENTO MISTO QUERCUS(SOB/AZINH./CARVAL.NEGRAL)</t>
+  </si>
+  <si>
+    <t>ESPARGOS</t>
+  </si>
+  <si>
+    <t>94.0</t>
+  </si>
+  <si>
+    <t>GOIABA</t>
+  </si>
+  <si>
+    <t>143.0</t>
+  </si>
+  <si>
+    <t>GOJI</t>
+  </si>
+  <si>
+    <t>PHYSALIS</t>
+  </si>
+  <si>
+    <t>PITAIA</t>
+  </si>
+  <si>
+    <t>TALHADIA DE CURTA ROTAÇÃO</t>
+  </si>
+  <si>
+    <t>LINHO</t>
+  </si>
+  <si>
+    <t>135.0</t>
+  </si>
+  <si>
+    <t>ARAÇA</t>
+  </si>
+  <si>
+    <t>139.0</t>
+  </si>
+  <si>
+    <t>QUINOA</t>
+  </si>
+  <si>
+    <t>ELP VALA DE REGA OU DRENAGEM - ÁREA ÚTIL</t>
+  </si>
+  <si>
+    <t>83.0</t>
+  </si>
+  <si>
+    <t>OUTROS FRUTOS FRESCOS</t>
+  </si>
+  <si>
+    <t>CONS FIXADORAS AZOTO (+ 50% FIX AZOTO)</t>
+  </si>
+  <si>
+    <t>142.0</t>
+  </si>
+  <si>
+    <t>GALERIA RIPÍCOLA FLORESTAL</t>
+  </si>
+  <si>
+    <t>FEIJÃO FRADE</t>
+  </si>
+  <si>
+    <t>ELP CHARCAS E LAGOAS - ÁREA ÚTIL</t>
+  </si>
+  <si>
+    <t>MILHO DOCE</t>
+  </si>
+  <si>
+    <t>24.0</t>
+  </si>
+  <si>
+    <t>TRIGO-SARRACENO</t>
+  </si>
+  <si>
+    <t>CÁRTAMO</t>
+  </si>
+  <si>
+    <t>111.0</t>
+  </si>
+  <si>
+    <t>LIMA</t>
+  </si>
+  <si>
+    <t>SUPERFICIE NÃO AGRICOLA</t>
+  </si>
+  <si>
+    <t>ELP MURO DE PEDRA POSTA - ÁREA ÚTIL</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>CHICHARO</t>
+  </si>
+  <si>
+    <t>ELP PATRIMÓNIO CULTURAL - ÁREA ÚTIL</t>
+  </si>
+  <si>
+    <t>ARAÇÁ</t>
+  </si>
+  <si>
+    <t>BAMBU</t>
+  </si>
+  <si>
+    <t>ALGODÃO</t>
+  </si>
+  <si>
+    <t>MILHO PAINÇO</t>
+  </si>
+  <si>
+    <t>103.0</t>
+  </si>
+  <si>
+    <t>LENTILHA</t>
+  </si>
+  <si>
+    <t>BERSIM</t>
+  </si>
+  <si>
+    <t>32.0</t>
+  </si>
+  <si>
+    <t>CANÓNIGOS</t>
+  </si>
+  <si>
+    <t>262.0</t>
+  </si>
+  <si>
+    <t>FUNCHO</t>
+  </si>
+  <si>
+    <t>162.0</t>
+  </si>
+  <si>
+    <t>TAGASASTE</t>
+  </si>
+  <si>
+    <t>CLEMENTINA</t>
+  </si>
+  <si>
+    <t>QUIABO</t>
+  </si>
+  <si>
+    <t>47.0</t>
+  </si>
+  <si>
+    <t>LUZERNA ARBÓREA</t>
+  </si>
+  <si>
+    <t>TORANJA</t>
+  </si>
+  <si>
+    <t>PLANTAS ORNAMENTAIS PERMANENTES</t>
+  </si>
+  <si>
+    <t>TAMARILHO</t>
+  </si>
+  <si>
+    <t>TREVO-DE-CHEIRO</t>
+  </si>
+  <si>
+    <t>CARDO</t>
+  </si>
+  <si>
+    <t>ALCACHOFRA</t>
+  </si>
+  <si>
+    <t>SÉSAMO</t>
+  </si>
+  <si>
+    <t>TEFF</t>
+  </si>
+  <si>
+    <t>265.0</t>
+  </si>
+  <si>
+    <t>FACÉLIA</t>
+  </si>
+  <si>
+    <t>BELDROEGA</t>
+  </si>
+  <si>
+    <t>CIDRA</t>
+  </si>
+  <si>
+    <t>FENO-GREGO E FENACHOS</t>
+  </si>
+  <si>
+    <t>MOSTAJEIRO</t>
+  </si>
+  <si>
+    <t>CHEROVIA</t>
+  </si>
+  <si>
+    <t>SANFENO</t>
+  </si>
+  <si>
+    <t>KUMQUAT</t>
+  </si>
+  <si>
+    <t>ANANÁS</t>
+  </si>
+  <si>
+    <t>ANNUAL INTERCROPS AND OTHER FORAGE CROPS</t>
+  </si>
+  <si>
+    <t>NITROGEN-FIXING</t>
+  </si>
+  <si>
+    <t>HEADLANDS PERMANENT CROPS AREA</t>
+  </si>
+  <si>
+    <t>NON-GRAZABLE AREA</t>
+  </si>
+  <si>
+    <t>LINEAR ELEMENT RICE - COMMITTED AREA</t>
+  </si>
+  <si>
+    <t>RICE F</t>
+  </si>
+  <si>
+    <t>SPRING</t>
+  </si>
+  <si>
+    <t>RIPARIAN GALLERY F</t>
+  </si>
+  <si>
+    <t>HYDROPONIA</t>
+  </si>
+  <si>
+    <t>SABBATH</t>
+  </si>
+  <si>
+    <t>MIXED STAND QUERCUS(SOB/AZINH./CARVAL.NEGRAL)</t>
+  </si>
+  <si>
+    <t>SPARKLES</t>
+  </si>
+  <si>
+    <t>SHORT ROTATION COPPICE</t>
+  </si>
+  <si>
+    <t>LINE</t>
+  </si>
+  <si>
+    <t>GRACE</t>
+  </si>
+  <si>
+    <t>ELP IRRIGATION OR DRAINAGE DITCH - USEFUL AREA</t>
+  </si>
+  <si>
+    <t>NITROGEN-FIXING PLANTS (+ 50% NITROGEN FIX)</t>
+  </si>
+  <si>
+    <t>RIPARIAN GALLERY FOREST</t>
+  </si>
+  <si>
+    <t>FRESH BEANS</t>
+  </si>
+  <si>
+    <t>ELP PONDS AND LAGOONS - USABLE AREA</t>
+  </si>
+  <si>
+    <t>SWEET CORN</t>
+  </si>
+  <si>
+    <t>BUCKWHEAT</t>
+  </si>
+  <si>
+    <t>CARTAMO</t>
+  </si>
+  <si>
+    <t>NON-AGRICULTURAL SURFACE</t>
+  </si>
+  <si>
+    <t>ELP STONE WALL - USABLE AREA</t>
+  </si>
+  <si>
+    <t>ELP CULTURAL HERITAGE - USABLE AREA</t>
+  </si>
+  <si>
+    <t>BAMBOO</t>
+  </si>
+  <si>
+    <t>MAIZE PINE</t>
+  </si>
+  <si>
+    <t>LENTIL</t>
+  </si>
+  <si>
+    <t>CANNONS</t>
+  </si>
+  <si>
+    <t>FLAVOUR</t>
+  </si>
+  <si>
+    <t>KIABO</t>
+  </si>
+  <si>
+    <t>TREE LUCERNE</t>
+  </si>
+  <si>
+    <t>TORANGE</t>
+  </si>
+  <si>
+    <t>PERMANENT ORNAMENTAL PLANTS</t>
+  </si>
+  <si>
+    <t>SADDLE</t>
+  </si>
+  <si>
+    <t>CARDOUS</t>
+  </si>
+  <si>
+    <t>SESAME</t>
+  </si>
+  <si>
+    <t>FACELIA</t>
+  </si>
+  <si>
+    <t>FENUGREEK AND FENACHOS</t>
+  </si>
+  <si>
+    <t>PINEAPPLE</t>
+  </si>
+  <si>
+    <t>EINJÄHRIGE ZWISCHENFRÜCHTE UND ANDERE FUTTERPFLANZEN</t>
+  </si>
+  <si>
+    <t>STICKSTOFFBINDENDE PFLANZEN</t>
+  </si>
+  <si>
+    <t>VORGEWENDE DAUERKULTUREN FLÄCHE</t>
+  </si>
+  <si>
+    <t>NICHT-GRAZIERBARE FLÄCHE</t>
+  </si>
+  <si>
+    <t>LINEARES ELEMENT REIS - GEBUNDENE FLÄCHE</t>
+  </si>
+  <si>
+    <t>REIS F</t>
+  </si>
+  <si>
+    <t>FRÜHLING</t>
+  </si>
+  <si>
+    <t>ZUCKERKANNE</t>
+  </si>
+  <si>
+    <t>MISCHBESTAND QUERCUS(SOB/AZINH./CARVAL.NEGRAL)</t>
+  </si>
+  <si>
+    <t>KURZUMTRIEBSPLANTAGE</t>
+  </si>
+  <si>
+    <t>ELP BEWÄSSERUNG ODER ENTWÄSSERUNGSGRABEN - NUTZFLÄCHE</t>
+  </si>
+  <si>
+    <t>ANDERES FRISCHOBST</t>
+  </si>
+  <si>
+    <t>STICKSTOFFBINDENDE PFLANZEN (+ 50% STICKSTOFFBINDUNG)</t>
+  </si>
+  <si>
+    <t>GALERIEWALD AM FLUSSUFER</t>
+  </si>
+  <si>
+    <t>FRISCHE BIENEN</t>
+  </si>
+  <si>
+    <t>ELP TEICHE UND LAGUNEN - NUTZBARE FLÄCHE</t>
+  </si>
+  <si>
+    <t>SÜSSKORN</t>
+  </si>
+  <si>
+    <t>BUCHWEIZER</t>
+  </si>
+  <si>
+    <t>KARTAMO</t>
+  </si>
+  <si>
+    <t>NICHT-LANDWIRTSCHAFTLICHE FLÄCHE</t>
+  </si>
+  <si>
+    <t>ELP STEINMAUER - NUTZBARE FLÄCHE</t>
+  </si>
+  <si>
+    <t>ELP KULTURELLES ERBE - NUTZBARE FLÄCHE</t>
+  </si>
+  <si>
+    <t>BAMBUS</t>
+  </si>
+  <si>
+    <t>MAIS KIEFER</t>
+  </si>
+  <si>
+    <t>KANNEN</t>
+  </si>
+  <si>
+    <t>GESCHMACK</t>
+  </si>
+  <si>
+    <t>BAUM LUCERNE</t>
+  </si>
+  <si>
+    <t>DAUERKULTUREN ZU ZIERZWECKEN</t>
+  </si>
+  <si>
+    <t>KARDOUS</t>
+  </si>
+  <si>
+    <t>SESAM</t>
+  </si>
+  <si>
+    <t>BOCKSHORNKLEE UND FENACHOS</t>
+  </si>
+  <si>
+    <t>ANPFLANZEN</t>
+  </si>
+  <si>
+    <t>plants_harvested_green</t>
+  </si>
+  <si>
+    <t>medlar_loquat</t>
+  </si>
+  <si>
+    <t>quinoa</t>
+  </si>
+  <si>
+    <t>buckwheat</t>
+  </si>
+  <si>
+    <t>safflower</t>
+  </si>
+  <si>
+    <t>lentils</t>
+  </si>
+  <si>
+    <t>fennel</t>
+  </si>
+  <si>
+    <t>sida_virginia_mallow</t>
+  </si>
+  <si>
+    <t>artichoke</t>
+  </si>
+  <si>
+    <t>phacelia</t>
+  </si>
+  <si>
+    <t>fenugreek</t>
+  </si>
+  <si>
+    <t>parsnips</t>
   </si>
 </sst>
 </file>
@@ -2988,10 +3517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H318"/>
+  <dimension ref="A1:H385"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A150" sqref="A150:XFD150"/>
+    <sheetView tabSelected="1" topLeftCell="A338" workbookViewId="0">
+      <selection activeCell="F387" sqref="F387"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8934,7 +9463,9 @@
       <c r="D250" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="E250" s="2"/>
+      <c r="E250" s="2" t="s">
+        <v>246</v>
+      </c>
       <c r="F250" s="2" t="s">
         <v>8</v>
       </c>
@@ -8958,7 +9489,9 @@
       <c r="D251" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E251" s="2"/>
+      <c r="E251" s="2" t="s">
+        <v>181</v>
+      </c>
       <c r="F251" s="2" t="s">
         <v>8</v>
       </c>
@@ -8982,7 +9515,9 @@
       <c r="D252" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="E252" s="2"/>
+      <c r="E252" s="2" t="s">
+        <v>249</v>
+      </c>
       <c r="F252" s="2" t="s">
         <v>8</v>
       </c>
@@ -9006,7 +9541,9 @@
       <c r="D253" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E253" s="2"/>
+      <c r="E253" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="F253" s="2" t="s">
         <v>8</v>
       </c>
@@ -9030,7 +9567,9 @@
       <c r="D254" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E254" s="2"/>
+      <c r="E254" s="2" t="s">
+        <v>172</v>
+      </c>
       <c r="F254" s="2" t="s">
         <v>8</v>
       </c>
@@ -9054,7 +9593,9 @@
       <c r="D255" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E255" s="2"/>
+      <c r="E255" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="F255" s="2" t="s">
         <v>8</v>
       </c>
@@ -9078,7 +9619,9 @@
       <c r="D256" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="E256" s="2"/>
+      <c r="E256" s="2" t="s">
+        <v>283</v>
+      </c>
       <c r="F256" s="2" t="s">
         <v>8</v>
       </c>
@@ -9102,7 +9645,9 @@
       <c r="D257" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="E257" s="2"/>
+      <c r="E257" s="2" t="s">
+        <v>286</v>
+      </c>
       <c r="F257" s="2" t="s">
         <v>8</v>
       </c>
@@ -9126,7 +9671,9 @@
       <c r="D258" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="E258" s="2"/>
+      <c r="E258" s="2" t="s">
+        <v>586</v>
+      </c>
       <c r="F258" s="2" t="s">
         <v>8</v>
       </c>
@@ -9150,7 +9697,9 @@
       <c r="D259" s="2" t="s">
         <v>821</v>
       </c>
-      <c r="E259" s="2"/>
+      <c r="E259" s="2" t="s">
+        <v>821</v>
+      </c>
       <c r="F259" s="2" t="s">
         <v>8</v>
       </c>
@@ -9174,7 +9723,9 @@
       <c r="D260" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="E260" s="2"/>
+      <c r="E260" s="2" t="s">
+        <v>318</v>
+      </c>
       <c r="F260" s="2" t="s">
         <v>8</v>
       </c>
@@ -9198,7 +9749,9 @@
       <c r="D261" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="E261" s="2"/>
+      <c r="E261" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="F261" s="2" t="s">
         <v>8</v>
       </c>
@@ -9222,7 +9775,9 @@
       <c r="D262" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="E262" s="2"/>
+      <c r="E262" s="2" t="s">
+        <v>395</v>
+      </c>
       <c r="F262" s="2" t="s">
         <v>8</v>
       </c>
@@ -9246,7 +9801,9 @@
       <c r="D263" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="E263" s="2"/>
+      <c r="E263" s="2" t="s">
+        <v>663</v>
+      </c>
       <c r="F263" s="2" t="s">
         <v>8</v>
       </c>
@@ -9270,7 +9827,9 @@
       <c r="D264" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E264" s="2"/>
+      <c r="E264" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="F264" s="2" t="s">
         <v>8</v>
       </c>
@@ -9294,7 +9853,9 @@
       <c r="D265" s="2" t="s">
         <v>836</v>
       </c>
-      <c r="E265" s="2"/>
+      <c r="E265" s="2" t="s">
+        <v>836</v>
+      </c>
       <c r="F265" s="2" t="s">
         <v>8</v>
       </c>
@@ -9318,7 +9879,9 @@
       <c r="D266" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="E266" s="2"/>
+      <c r="E266" s="2" t="s">
+        <v>402</v>
+      </c>
       <c r="F266" s="2" t="s">
         <v>8</v>
       </c>
@@ -9342,7 +9905,9 @@
       <c r="D267" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="E267" s="2"/>
+      <c r="E267" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="F267" s="4" t="s">
         <v>8</v>
       </c>
@@ -9366,7 +9931,9 @@
       <c r="D268" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="E268" s="2"/>
+      <c r="E268" s="2" t="s">
+        <v>429</v>
+      </c>
       <c r="F268" s="2" t="s">
         <v>8</v>
       </c>
@@ -9390,7 +9957,9 @@
       <c r="D269" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="E269" s="2"/>
+      <c r="E269" s="2" t="s">
+        <v>269</v>
+      </c>
       <c r="F269" s="4" t="s">
         <v>8</v>
       </c>
@@ -9414,7 +9983,9 @@
       <c r="D270" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="E270" s="2"/>
+      <c r="E270" s="2" t="s">
+        <v>322</v>
+      </c>
       <c r="F270" s="2" t="s">
         <v>8</v>
       </c>
@@ -9438,7 +10009,9 @@
       <c r="D271" s="2" t="s">
         <v>839</v>
       </c>
-      <c r="E271" s="2"/>
+      <c r="E271" s="2" t="s">
+        <v>839</v>
+      </c>
       <c r="F271" s="3" t="s">
         <v>840</v>
       </c>
@@ -9463,7 +10036,7 @@
         <v>86</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>794</v>
+        <v>86</v>
       </c>
       <c r="F272" s="2" t="s">
         <v>795</v>
@@ -9488,7 +10061,9 @@
       <c r="D273" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="E273" s="2"/>
+      <c r="E273" s="2" t="s">
+        <v>243</v>
+      </c>
       <c r="F273" s="2" t="s">
         <v>240</v>
       </c>
@@ -9512,7 +10087,9 @@
       <c r="D274" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E274" s="2"/>
+      <c r="E274" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="F274" s="3" t="s">
         <v>281</v>
       </c>
@@ -9536,7 +10113,9 @@
       <c r="D275" s="2" t="s">
         <v>752</v>
       </c>
-      <c r="E275" s="2"/>
+      <c r="E275" s="2" t="s">
+        <v>752</v>
+      </c>
       <c r="F275" s="3" t="s">
         <v>841</v>
       </c>
@@ -9560,7 +10139,9 @@
       <c r="D276" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E276" s="2"/>
+      <c r="E276" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="F276" s="2" t="s">
         <v>281</v>
       </c>
@@ -9584,7 +10165,9 @@
       <c r="D277" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E277" s="2"/>
+      <c r="E277" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="F277" s="3" t="s">
         <v>842</v>
       </c>
@@ -9608,7 +10191,9 @@
       <c r="D278" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E278" s="2"/>
+      <c r="E278" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="F278" s="2" t="s">
         <v>43</v>
       </c>
@@ -9632,7 +10217,9 @@
       <c r="D279" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E279" s="2"/>
+      <c r="E279" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="F279" s="3" t="s">
         <v>844</v>
       </c>
@@ -9656,7 +10243,9 @@
       <c r="D280" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E280" s="2"/>
+      <c r="E280" s="2" t="s">
+        <v>266</v>
+      </c>
       <c r="F280" s="3" t="s">
         <v>547</v>
       </c>
@@ -9680,7 +10269,9 @@
       <c r="D281" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="E281" s="2"/>
+      <c r="E281" s="2" t="s">
+        <v>634</v>
+      </c>
       <c r="F281" s="3" t="s">
         <v>845</v>
       </c>
@@ -9704,7 +10295,9 @@
       <c r="D282" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="E282" s="2"/>
+      <c r="E282" s="2" t="s">
+        <v>390</v>
+      </c>
       <c r="F282" s="3" t="s">
         <v>846</v>
       </c>
@@ -9728,7 +10321,9 @@
       <c r="D283" s="2" t="s">
         <v>756</v>
       </c>
-      <c r="E283" s="2"/>
+      <c r="E283" s="2" t="s">
+        <v>756</v>
+      </c>
       <c r="F283" s="3" t="s">
         <v>847</v>
       </c>
@@ -9752,7 +10347,9 @@
       <c r="D284" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="E284" s="2"/>
+      <c r="E284" s="2" t="s">
+        <v>304</v>
+      </c>
       <c r="F284" s="2" t="s">
         <v>43</v>
       </c>
@@ -9776,7 +10373,9 @@
       <c r="D285" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="E285" s="2"/>
+      <c r="E285" s="2" t="s">
+        <v>348</v>
+      </c>
       <c r="F285" s="3" t="s">
         <v>842</v>
       </c>
@@ -9800,7 +10399,9 @@
       <c r="D286" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="E286" s="2"/>
+      <c r="E286" s="2" t="s">
+        <v>271</v>
+      </c>
       <c r="F286" s="3" t="s">
         <v>848</v>
       </c>
@@ -9824,7 +10425,9 @@
       <c r="D287" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="E287" s="2"/>
+      <c r="E287" s="2" t="s">
+        <v>422</v>
+      </c>
       <c r="F287" s="3" t="s">
         <v>849</v>
       </c>
@@ -9848,7 +10451,9 @@
       <c r="D288" s="2" t="s">
         <v>750</v>
       </c>
-      <c r="E288" s="2"/>
+      <c r="E288" s="2" t="s">
+        <v>750</v>
+      </c>
       <c r="F288" s="3" t="s">
         <v>850</v>
       </c>
@@ -9872,7 +10477,9 @@
       <c r="D289" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="E289" s="2"/>
+      <c r="E289" s="2" t="s">
+        <v>408</v>
+      </c>
       <c r="F289" s="3" t="s">
         <v>406</v>
       </c>
@@ -9896,7 +10503,9 @@
       <c r="D290" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="E290" s="2"/>
+      <c r="E290" s="2" t="s">
+        <v>419</v>
+      </c>
       <c r="F290" s="3" t="s">
         <v>851</v>
       </c>
@@ -9920,7 +10529,9 @@
       <c r="D291" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="E291" s="2"/>
+      <c r="E291" s="2" t="s">
+        <v>431</v>
+      </c>
       <c r="F291" s="2" t="s">
         <v>281</v>
       </c>
@@ -9944,7 +10555,9 @@
       <c r="D292" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="E292" s="2"/>
+      <c r="E292" s="2" t="s">
+        <v>435</v>
+      </c>
       <c r="F292" s="3" t="s">
         <v>842</v>
       </c>
@@ -9968,7 +10581,9 @@
       <c r="D293" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="E293" s="2"/>
+      <c r="E293" s="2" t="s">
+        <v>536</v>
+      </c>
       <c r="F293" s="2" t="s">
         <v>281</v>
       </c>
@@ -9992,7 +10607,9 @@
       <c r="D294" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="E294" s="2"/>
+      <c r="E294" s="2" t="s">
+        <v>620</v>
+      </c>
       <c r="F294" s="3" t="s">
         <v>842</v>
       </c>
@@ -10016,7 +10633,9 @@
       <c r="D295" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="E295" s="2"/>
+      <c r="E295" s="2" t="s">
+        <v>622</v>
+      </c>
       <c r="F295" s="2" t="s">
         <v>281</v>
       </c>
@@ -10040,7 +10659,9 @@
       <c r="D296" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="E296" s="2"/>
+      <c r="E296" s="2" t="s">
+        <v>433</v>
+      </c>
       <c r="F296" s="2" t="s">
         <v>281</v>
       </c>
@@ -10064,7 +10685,9 @@
       <c r="D297" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="E297" s="2"/>
+      <c r="E297" s="2" t="s">
+        <v>629</v>
+      </c>
       <c r="F297" s="3" t="s">
         <v>451</v>
       </c>
@@ -10088,7 +10711,9 @@
       <c r="D298" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="E298" s="2"/>
+      <c r="E298" s="2" t="s">
+        <v>650</v>
+      </c>
       <c r="F298" s="3" t="s">
         <v>43</v>
       </c>
@@ -10112,7 +10737,9 @@
       <c r="D299" s="2" t="s">
         <v>741</v>
       </c>
-      <c r="E299" s="2"/>
+      <c r="E299" s="2" t="s">
+        <v>741</v>
+      </c>
       <c r="F299" s="3" t="s">
         <v>850</v>
       </c>
@@ -10136,7 +10763,9 @@
       <c r="D300" s="2" t="s">
         <v>747</v>
       </c>
-      <c r="E300" s="2"/>
+      <c r="E300" s="2" t="s">
+        <v>747</v>
+      </c>
       <c r="F300" s="3" t="s">
         <v>530</v>
       </c>
@@ -10160,7 +10789,9 @@
       <c r="D301" s="2" t="s">
         <v>764</v>
       </c>
-      <c r="E301" s="2"/>
+      <c r="E301" s="2" t="s">
+        <v>764</v>
+      </c>
       <c r="F301" s="3" t="s">
         <v>843</v>
       </c>
@@ -10184,7 +10815,9 @@
       <c r="D302" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E302" s="2"/>
+      <c r="E302" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="F302" s="3" t="s">
         <v>852</v>
       </c>
@@ -10208,7 +10841,9 @@
       <c r="D303" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="E303" s="2"/>
+      <c r="E303" s="2" t="s">
+        <v>778</v>
+      </c>
       <c r="F303" s="2" t="s">
         <v>281</v>
       </c>
@@ -10232,7 +10867,9 @@
       <c r="D304" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="E304" s="2"/>
+      <c r="E304" s="2" t="s">
+        <v>780</v>
+      </c>
       <c r="F304" s="2" t="s">
         <v>281</v>
       </c>
@@ -10256,7 +10893,9 @@
       <c r="D305" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="E305" s="2"/>
+      <c r="E305" s="2" t="s">
+        <v>228</v>
+      </c>
       <c r="F305" s="2" t="s">
         <v>858</v>
       </c>
@@ -10280,7 +10919,9 @@
       <c r="D306" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="E306" s="2"/>
+      <c r="E306" s="2" t="s">
+        <v>774</v>
+      </c>
       <c r="F306" s="3" t="s">
         <v>853</v>
       </c>
@@ -10304,7 +10945,9 @@
       <c r="D307" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="E307" s="2"/>
+      <c r="E307" s="2" t="s">
+        <v>311</v>
+      </c>
       <c r="F307" s="3" t="s">
         <v>854</v>
       </c>
@@ -10328,7 +10971,9 @@
       <c r="D308" s="2" t="s">
         <v>777</v>
       </c>
-      <c r="E308" s="2"/>
+      <c r="E308" s="2" t="s">
+        <v>777</v>
+      </c>
       <c r="F308" s="3" t="s">
         <v>825</v>
       </c>
@@ -10352,7 +10997,9 @@
       <c r="D309" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="E309" s="2"/>
+      <c r="E309" s="2" t="s">
+        <v>398</v>
+      </c>
       <c r="F309" s="2" t="s">
         <v>855</v>
       </c>
@@ -10523,6 +11170,1346 @@
       </c>
       <c r="H318" s="5" t="s">
         <v>857</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B319" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="C319" t="s">
+        <v>991</v>
+      </c>
+      <c r="D319" t="s">
+        <v>950</v>
+      </c>
+      <c r="E319" t="s">
+        <v>950</v>
+      </c>
+      <c r="F319" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G319" s="2">
+        <v>3301090000</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B320" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="C320" t="s">
+        <v>992</v>
+      </c>
+      <c r="D320" t="s">
+        <v>951</v>
+      </c>
+      <c r="E320" t="s">
+        <v>951</v>
+      </c>
+      <c r="F320" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="G320" s="2">
+        <v>3301090300</v>
+      </c>
+    </row>
+    <row r="321" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B321" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="C321" t="s">
+        <v>993</v>
+      </c>
+      <c r="D321" t="s">
+        <v>952</v>
+      </c>
+      <c r="E321" t="s">
+        <v>952</v>
+      </c>
+      <c r="F321" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="G321" s="2">
+        <v>3303990000</v>
+      </c>
+    </row>
+    <row r="322" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B322" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="C322" t="s">
+        <v>994</v>
+      </c>
+      <c r="D322" t="s">
+        <v>953</v>
+      </c>
+      <c r="E322" t="s">
+        <v>953</v>
+      </c>
+      <c r="F322" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G322" s="7">
+        <v>3399000000</v>
+      </c>
+    </row>
+    <row r="323" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B323" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="C323" t="s">
+        <v>995</v>
+      </c>
+      <c r="D323" t="s">
+        <v>954</v>
+      </c>
+      <c r="E323" t="s">
+        <v>954</v>
+      </c>
+      <c r="F323" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G323" s="2">
+        <v>3301010700</v>
+      </c>
+    </row>
+    <row r="324" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B324" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="C324" t="s">
+        <v>996</v>
+      </c>
+      <c r="D324" t="s">
+        <v>955</v>
+      </c>
+      <c r="E324" t="s">
+        <v>955</v>
+      </c>
+      <c r="F324" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G324" s="2">
+        <v>3301010700</v>
+      </c>
+    </row>
+    <row r="325" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B325" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C325" t="s">
+        <v>997</v>
+      </c>
+      <c r="D325" t="s">
+        <v>956</v>
+      </c>
+      <c r="E325" t="s">
+        <v>956</v>
+      </c>
+      <c r="F325" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G325" s="2">
+        <v>3303010800</v>
+      </c>
+    </row>
+    <row r="326" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B326" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="C326" t="s">
+        <v>998</v>
+      </c>
+      <c r="D326" t="s">
+        <v>174</v>
+      </c>
+      <c r="E326" t="s">
+        <v>174</v>
+      </c>
+      <c r="F326" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="G326" s="2">
+        <v>3301069900</v>
+      </c>
+    </row>
+    <row r="327" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B327" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="C327" t="s">
+        <v>957</v>
+      </c>
+      <c r="D327" t="s">
+        <v>957</v>
+      </c>
+      <c r="E327" t="s">
+        <v>957</v>
+      </c>
+      <c r="F327" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G327" s="7">
+        <v>3399000000</v>
+      </c>
+    </row>
+    <row r="328" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B328" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="C328" t="s">
+        <v>875</v>
+      </c>
+      <c r="D328" t="s">
+        <v>875</v>
+      </c>
+      <c r="E328" t="s">
+        <v>875</v>
+      </c>
+      <c r="F328" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G328" s="7">
+        <v>3399000000</v>
+      </c>
+    </row>
+    <row r="329" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B329" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="C329" t="s">
+        <v>958</v>
+      </c>
+      <c r="D329" t="s">
+        <v>958</v>
+      </c>
+      <c r="E329" t="s">
+        <v>958</v>
+      </c>
+      <c r="F329" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G329" s="7">
+        <v>3399000000</v>
+      </c>
+    </row>
+    <row r="330" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B330" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="C330" t="s">
+        <v>959</v>
+      </c>
+      <c r="D330" t="s">
+        <v>959</v>
+      </c>
+      <c r="E330" t="s">
+        <v>959</v>
+      </c>
+      <c r="F330" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="G330" s="2">
+        <v>3303080400</v>
+      </c>
+    </row>
+    <row r="331" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B331" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="C331" t="s">
+        <v>879</v>
+      </c>
+      <c r="D331" t="s">
+        <v>879</v>
+      </c>
+      <c r="E331" t="s">
+        <v>879</v>
+      </c>
+      <c r="F331" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="G331" s="2">
+        <v>3301061200</v>
+      </c>
+    </row>
+    <row r="332" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B332" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="C332" t="s">
+        <v>880</v>
+      </c>
+      <c r="D332" t="s">
+        <v>880</v>
+      </c>
+      <c r="E332" t="s">
+        <v>880</v>
+      </c>
+      <c r="F332" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="G332" s="2">
+        <v>3301090301</v>
+      </c>
+    </row>
+    <row r="333" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B333" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="C333" t="s">
+        <v>999</v>
+      </c>
+      <c r="D333" t="s">
+        <v>960</v>
+      </c>
+      <c r="E333" t="s">
+        <v>960</v>
+      </c>
+      <c r="F333" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="G333" s="2">
+        <v>3306060000</v>
+      </c>
+    </row>
+    <row r="334" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B334" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="C334" t="s">
+        <v>961</v>
+      </c>
+      <c r="D334" t="s">
+        <v>961</v>
+      </c>
+      <c r="E334" t="s">
+        <v>961</v>
+      </c>
+      <c r="F334" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G334" s="7">
+        <v>3399000000</v>
+      </c>
+    </row>
+    <row r="335" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B335" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="C335" t="s">
+        <v>885</v>
+      </c>
+      <c r="D335" t="s">
+        <v>885</v>
+      </c>
+      <c r="E335" t="s">
+        <v>885</v>
+      </c>
+      <c r="F335" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="G335" s="2">
+        <v>3303010000</v>
+      </c>
+    </row>
+    <row r="336" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B336" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="C336" t="s">
+        <v>887</v>
+      </c>
+      <c r="D336" t="s">
+        <v>887</v>
+      </c>
+      <c r="E336" t="s">
+        <v>887</v>
+      </c>
+      <c r="F336" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="G336" s="2">
+        <v>3303010000</v>
+      </c>
+    </row>
+    <row r="337" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B337" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="C337" t="s">
+        <v>888</v>
+      </c>
+      <c r="D337" t="s">
+        <v>888</v>
+      </c>
+      <c r="E337" t="s">
+        <v>888</v>
+      </c>
+      <c r="F337" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="G337" s="2">
+        <v>3303010000</v>
+      </c>
+    </row>
+    <row r="338" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B338" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="C338" t="s">
+        <v>889</v>
+      </c>
+      <c r="D338" t="s">
+        <v>889</v>
+      </c>
+      <c r="E338" t="s">
+        <v>889</v>
+      </c>
+      <c r="F338" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="G338" s="2">
+        <v>3303010000</v>
+      </c>
+    </row>
+    <row r="339" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B339" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="C339" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D339" t="s">
+        <v>962</v>
+      </c>
+      <c r="E339" t="s">
+        <v>962</v>
+      </c>
+      <c r="F339" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="G339" s="2">
+        <v>3301069900</v>
+      </c>
+    </row>
+    <row r="340" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B340" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="C340" t="s">
+        <v>963</v>
+      </c>
+      <c r="D340" t="s">
+        <v>963</v>
+      </c>
+      <c r="E340" t="s">
+        <v>963</v>
+      </c>
+      <c r="F340" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="G340" s="2">
+        <v>3301069900</v>
+      </c>
+    </row>
+    <row r="341" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B341" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="C341" t="s">
+        <v>964</v>
+      </c>
+      <c r="D341" t="s">
+        <v>964</v>
+      </c>
+      <c r="E341" t="s">
+        <v>964</v>
+      </c>
+      <c r="F341" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="G341" s="2">
+        <v>3303010000</v>
+      </c>
+    </row>
+    <row r="342" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B342" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="C342" t="s">
+        <v>895</v>
+      </c>
+      <c r="D342" t="s">
+        <v>895</v>
+      </c>
+      <c r="E342" t="s">
+        <v>895</v>
+      </c>
+      <c r="F342" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="G342" s="2">
+        <v>3301150300</v>
+      </c>
+    </row>
+    <row r="343" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B343" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="C343" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D343" t="s">
+        <v>965</v>
+      </c>
+      <c r="E343" t="s">
+        <v>965</v>
+      </c>
+      <c r="F343" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G343" s="7">
+        <v>3399000000</v>
+      </c>
+    </row>
+    <row r="344" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B344" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="C344" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D344" t="s">
+        <v>552</v>
+      </c>
+      <c r="E344" t="s">
+        <v>552</v>
+      </c>
+      <c r="F344" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="G344" s="2">
+        <v>3303010000</v>
+      </c>
+    </row>
+    <row r="345" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B345" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="C345" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D345" t="s">
+        <v>966</v>
+      </c>
+      <c r="E345" t="s">
+        <v>966</v>
+      </c>
+      <c r="F345" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="G345" s="2">
+        <v>3301090300</v>
+      </c>
+    </row>
+    <row r="346" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B346" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="C346" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D346" t="s">
+        <v>967</v>
+      </c>
+      <c r="E346" t="s">
+        <v>967</v>
+      </c>
+      <c r="F346" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G346" s="7">
+        <v>3399000000</v>
+      </c>
+    </row>
+    <row r="347" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B347" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="C347" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D347" t="s">
+        <v>968</v>
+      </c>
+      <c r="E347" t="s">
+        <v>968</v>
+      </c>
+      <c r="F347" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="G347" s="2">
+        <v>3301020100</v>
+      </c>
+    </row>
+    <row r="348" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B348" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="C348" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D348" t="s">
+        <v>969</v>
+      </c>
+      <c r="E348" t="s">
+        <v>969</v>
+      </c>
+      <c r="F348" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="G348" s="2">
+        <v>3301020100</v>
+      </c>
+    </row>
+    <row r="349" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B349" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="C349" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D349" t="s">
+        <v>970</v>
+      </c>
+      <c r="E349" t="s">
+        <v>970</v>
+      </c>
+      <c r="F349" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="G349" s="2">
+        <v>3301010600</v>
+      </c>
+    </row>
+    <row r="350" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B350" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="C350" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D350" t="s">
+        <v>971</v>
+      </c>
+      <c r="E350" t="s">
+        <v>971</v>
+      </c>
+      <c r="F350" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G350" s="2">
+        <v>3301150200</v>
+      </c>
+    </row>
+    <row r="351" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B351" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="C351" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D351" t="s">
+        <v>972</v>
+      </c>
+      <c r="E351" t="s">
+        <v>972</v>
+      </c>
+      <c r="F351" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="G351" s="2">
+        <v>3301083900</v>
+      </c>
+    </row>
+    <row r="352" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B352" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="C352" t="s">
+        <v>909</v>
+      </c>
+      <c r="D352" t="s">
+        <v>909</v>
+      </c>
+      <c r="E352" t="s">
+        <v>909</v>
+      </c>
+      <c r="F352" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="G352" s="2">
+        <v>3301020600</v>
+      </c>
+    </row>
+    <row r="353" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B353" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="C353" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D353" t="s">
+        <v>973</v>
+      </c>
+      <c r="E353" t="s">
+        <v>973</v>
+      </c>
+      <c r="F353" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G353" s="7">
+        <v>3399000000</v>
+      </c>
+    </row>
+    <row r="354" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B354" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="C354" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D354" t="s">
+        <v>974</v>
+      </c>
+      <c r="E354" t="s">
+        <v>974</v>
+      </c>
+      <c r="F354" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G354" s="7">
+        <v>3399000000</v>
+      </c>
+    </row>
+    <row r="355" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B355" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="C355" t="s">
+        <v>913</v>
+      </c>
+      <c r="D355" t="s">
+        <v>913</v>
+      </c>
+      <c r="E355" t="s">
+        <v>913</v>
+      </c>
+      <c r="F355" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="G355" s="2">
+        <v>3301020600</v>
+      </c>
+    </row>
+    <row r="356" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B356" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="C356" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D356" t="s">
+        <v>975</v>
+      </c>
+      <c r="E356" t="s">
+        <v>975</v>
+      </c>
+      <c r="F356" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G356" s="7">
+        <v>3399000000</v>
+      </c>
+    </row>
+    <row r="357" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B357" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="C357" t="s">
+        <v>915</v>
+      </c>
+      <c r="D357" t="s">
+        <v>915</v>
+      </c>
+      <c r="E357" t="s">
+        <v>915</v>
+      </c>
+      <c r="F357" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="G357" s="2">
+        <v>3303010000</v>
+      </c>
+    </row>
+    <row r="358" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B358" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="C358" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D358" t="s">
+        <v>976</v>
+      </c>
+      <c r="E358" t="s">
+        <v>976</v>
+      </c>
+      <c r="F358" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="G358" s="2">
+        <v>3301069900</v>
+      </c>
+    </row>
+    <row r="359" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B359" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="C359" t="s">
+        <v>61</v>
+      </c>
+      <c r="D359" t="s">
+        <v>60</v>
+      </c>
+      <c r="E359" t="s">
+        <v>60</v>
+      </c>
+      <c r="F359" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="G359" s="2">
+        <v>3301060300</v>
+      </c>
+    </row>
+    <row r="360" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B360" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="C360" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D360" t="s">
+        <v>977</v>
+      </c>
+      <c r="E360" t="s">
+        <v>977</v>
+      </c>
+      <c r="F360" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="G360" s="2">
+        <v>3301010900</v>
+      </c>
+    </row>
+    <row r="361" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B361" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="C361" t="s">
+        <v>978</v>
+      </c>
+      <c r="D361" t="s">
+        <v>978</v>
+      </c>
+      <c r="E361" t="s">
+        <v>978</v>
+      </c>
+      <c r="F361" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="G361" s="2">
+        <v>3301020500</v>
+      </c>
+    </row>
+    <row r="362" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B362" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C362" t="s">
+        <v>921</v>
+      </c>
+      <c r="D362" t="s">
+        <v>921</v>
+      </c>
+      <c r="E362" t="s">
+        <v>921</v>
+      </c>
+      <c r="F362" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="G362" s="2">
+        <v>3301090303</v>
+      </c>
+    </row>
+    <row r="363" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B363" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C363" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D363" t="s">
+        <v>979</v>
+      </c>
+      <c r="E363" t="s">
+        <v>979</v>
+      </c>
+      <c r="F363" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G363" s="2">
+        <v>3301310000</v>
+      </c>
+    </row>
+    <row r="364" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B364" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="C364" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D364" t="s">
+        <v>980</v>
+      </c>
+      <c r="E364" t="s">
+        <v>980</v>
+      </c>
+      <c r="F364" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="G364" s="2">
+        <v>3301170000</v>
+      </c>
+    </row>
+    <row r="365" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B365" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="C365" t="s">
+        <v>927</v>
+      </c>
+      <c r="D365" t="s">
+        <v>927</v>
+      </c>
+      <c r="E365" t="s">
+        <v>927</v>
+      </c>
+      <c r="F365" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="G365" s="2">
+        <v>3301090301</v>
+      </c>
+    </row>
+    <row r="366" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B366" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="C366" t="s">
+        <v>928</v>
+      </c>
+      <c r="D366" t="s">
+        <v>928</v>
+      </c>
+      <c r="E366" t="s">
+        <v>928</v>
+      </c>
+      <c r="F366" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="G366" s="2">
+        <v>3303010000</v>
+      </c>
+    </row>
+    <row r="367" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B367" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="C367" t="s">
+        <v>981</v>
+      </c>
+      <c r="D367" t="s">
+        <v>981</v>
+      </c>
+      <c r="E367" t="s">
+        <v>981</v>
+      </c>
+      <c r="F367" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="G367" s="2">
+        <v>3304030000</v>
+      </c>
+    </row>
+    <row r="368" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B368" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="C368" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D368" t="s">
+        <v>982</v>
+      </c>
+      <c r="E368" t="s">
+        <v>982</v>
+      </c>
+      <c r="F368" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="G368" s="2">
+        <v>3301090301</v>
+      </c>
+    </row>
+    <row r="369" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B369" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="C369" t="s">
+        <v>983</v>
+      </c>
+      <c r="D369" t="s">
+        <v>983</v>
+      </c>
+      <c r="E369" t="s">
+        <v>983</v>
+      </c>
+      <c r="F369" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="G369" s="2">
+        <v>3303010000</v>
+      </c>
+    </row>
+    <row r="370" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B370" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="C370" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D370" t="s">
+        <v>984</v>
+      </c>
+      <c r="E370" t="s">
+        <v>984</v>
+      </c>
+      <c r="F370" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G370" s="2">
+        <v>3303000000</v>
+      </c>
+    </row>
+    <row r="371" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B371" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="C371" t="s">
+        <v>985</v>
+      </c>
+      <c r="D371" t="s">
+        <v>985</v>
+      </c>
+      <c r="E371" t="s">
+        <v>985</v>
+      </c>
+      <c r="F371" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="G371" s="2">
+        <v>3303010000</v>
+      </c>
+    </row>
+    <row r="372" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B372" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="C372" t="s">
+        <v>794</v>
+      </c>
+      <c r="D372" t="s">
+        <v>794</v>
+      </c>
+      <c r="E372" t="s">
+        <v>794</v>
+      </c>
+      <c r="F372" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="G372" s="2">
+        <v>3301090303</v>
+      </c>
+    </row>
+    <row r="373" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B373" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="C373" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D373" t="s">
+        <v>986</v>
+      </c>
+      <c r="E373" t="s">
+        <v>986</v>
+      </c>
+      <c r="F373" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="G373" s="2">
+        <v>3301270000</v>
+      </c>
+    </row>
+    <row r="374" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B374" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="C374" t="s">
+        <v>937</v>
+      </c>
+      <c r="D374" t="s">
+        <v>937</v>
+      </c>
+      <c r="E374" t="s">
+        <v>937</v>
+      </c>
+      <c r="F374" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="G374" s="2">
+        <v>3301270000</v>
+      </c>
+    </row>
+    <row r="375" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B375" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="C375" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D375" t="s">
+        <v>987</v>
+      </c>
+      <c r="E375" t="s">
+        <v>987</v>
+      </c>
+      <c r="F375" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="G375" s="2">
+        <v>3301061200</v>
+      </c>
+    </row>
+    <row r="376" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B376" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="C376" t="s">
+        <v>939</v>
+      </c>
+      <c r="D376" t="s">
+        <v>939</v>
+      </c>
+      <c r="E376" t="s">
+        <v>939</v>
+      </c>
+      <c r="F376" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="G376" s="2">
+        <v>3301010900</v>
+      </c>
+    </row>
+    <row r="377" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B377" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="C377" t="s">
+        <v>988</v>
+      </c>
+      <c r="D377" t="s">
+        <v>988</v>
+      </c>
+      <c r="E377" t="s">
+        <v>988</v>
+      </c>
+      <c r="F377" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="G377" s="2">
+        <v>3301061400</v>
+      </c>
+    </row>
+    <row r="378" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B378" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="C378" t="s">
+        <v>942</v>
+      </c>
+      <c r="D378" t="s">
+        <v>942</v>
+      </c>
+      <c r="E378" t="s">
+        <v>942</v>
+      </c>
+      <c r="F378" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="G378" s="2">
+        <v>3301061200</v>
+      </c>
+    </row>
+    <row r="379" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B379" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="C379" t="s">
+        <v>943</v>
+      </c>
+      <c r="D379" t="s">
+        <v>943</v>
+      </c>
+      <c r="E379" t="s">
+        <v>943</v>
+      </c>
+      <c r="F379" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="G379" s="2">
+        <v>3303010000</v>
+      </c>
+    </row>
+    <row r="380" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B380" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="C380" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D380" t="s">
+        <v>989</v>
+      </c>
+      <c r="E380" t="s">
+        <v>989</v>
+      </c>
+      <c r="F380" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="G380" s="2">
+        <v>3301020400</v>
+      </c>
+    </row>
+    <row r="381" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B381" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="C381" t="s">
+        <v>945</v>
+      </c>
+      <c r="D381" t="s">
+        <v>945</v>
+      </c>
+      <c r="E381" t="s">
+        <v>945</v>
+      </c>
+      <c r="F381" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G381" s="2">
+        <v>3306000000</v>
+      </c>
+    </row>
+    <row r="382" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B382" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="C382" t="s">
+        <v>946</v>
+      </c>
+      <c r="D382" t="s">
+        <v>946</v>
+      </c>
+      <c r="E382" t="s">
+        <v>946</v>
+      </c>
+      <c r="F382" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G382" s="2">
+        <v>3301290500</v>
+      </c>
+    </row>
+    <row r="383" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B383" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="C383" t="s">
+        <v>947</v>
+      </c>
+      <c r="D383" t="s">
+        <v>947</v>
+      </c>
+      <c r="E383" t="s">
+        <v>947</v>
+      </c>
+      <c r="F383" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="G383" s="2">
+        <v>3301080000</v>
+      </c>
+    </row>
+    <row r="384" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B384" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="C384" t="s">
+        <v>948</v>
+      </c>
+      <c r="D384" t="s">
+        <v>948</v>
+      </c>
+      <c r="E384" t="s">
+        <v>948</v>
+      </c>
+      <c r="F384" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="G384" s="2">
+        <v>3303010000</v>
+      </c>
+    </row>
+    <row r="385" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B385" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="C385" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D385" t="s">
+        <v>990</v>
+      </c>
+      <c r="E385" t="s">
+        <v>990</v>
+      </c>
+      <c r="F385" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="G385" s="2">
+        <v>3303010000</v>
       </c>
     </row>
   </sheetData>
@@ -10533,4 +12520,726 @@
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4B1798E-0DA7-46BE-81EC-2BEC2C7147FF}">
+  <dimension ref="A1:C67"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>859</v>
+      </c>
+      <c r="C1" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>861</v>
+      </c>
+      <c r="C2" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>863</v>
+      </c>
+      <c r="C3" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>865</v>
+      </c>
+      <c r="C4" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>867</v>
+      </c>
+      <c r="C5" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>87</v>
+      </c>
+      <c r="B6" t="s">
+        <v>869</v>
+      </c>
+      <c r="C6" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>92</v>
+      </c>
+      <c r="C7" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>151</v>
+      </c>
+      <c r="B8" t="s">
+        <v>872</v>
+      </c>
+      <c r="C8" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>155</v>
+      </c>
+      <c r="C9" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>209</v>
+      </c>
+      <c r="C10" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>259</v>
+      </c>
+      <c r="B11" t="s">
+        <v>876</v>
+      </c>
+      <c r="C11" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>268</v>
+      </c>
+      <c r="B12" t="s">
+        <v>863</v>
+      </c>
+      <c r="C12" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>307</v>
+      </c>
+      <c r="C13" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>429</v>
+      </c>
+      <c r="C14" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>551</v>
+      </c>
+      <c r="B15" t="s">
+        <v>881</v>
+      </c>
+      <c r="C15" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>668</v>
+      </c>
+      <c r="C16" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>731</v>
+      </c>
+      <c r="B17" t="s">
+        <v>884</v>
+      </c>
+      <c r="C17" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>824</v>
+      </c>
+      <c r="B18" t="s">
+        <v>886</v>
+      </c>
+      <c r="C18" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>834</v>
+      </c>
+      <c r="C19" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>838</v>
+      </c>
+      <c r="C20" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1065</v>
+      </c>
+      <c r="C21" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1084</v>
+      </c>
+      <c r="C22" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1091</v>
+      </c>
+      <c r="B23" t="s">
+        <v>892</v>
+      </c>
+      <c r="C23" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1637</v>
+      </c>
+      <c r="B24" t="s">
+        <v>894</v>
+      </c>
+      <c r="C24" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1680</v>
+      </c>
+      <c r="B25" t="s">
+        <v>867</v>
+      </c>
+      <c r="C25" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1685</v>
+      </c>
+      <c r="B26" t="s">
+        <v>897</v>
+      </c>
+      <c r="C26" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1695</v>
+      </c>
+      <c r="B27" t="s">
+        <v>865</v>
+      </c>
+      <c r="C27" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1720</v>
+      </c>
+      <c r="B28" t="s">
+        <v>900</v>
+      </c>
+      <c r="C28" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1725</v>
+      </c>
+      <c r="B29" t="s">
+        <v>876</v>
+      </c>
+      <c r="C29" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>1743</v>
+      </c>
+      <c r="B30" t="s">
+        <v>886</v>
+      </c>
+      <c r="C30" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1756</v>
+      </c>
+      <c r="B31" t="s">
+        <v>886</v>
+      </c>
+      <c r="C31" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>1812</v>
+      </c>
+      <c r="B32" t="s">
+        <v>905</v>
+      </c>
+      <c r="C32" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>1826</v>
+      </c>
+      <c r="B33" t="s">
+        <v>863</v>
+      </c>
+      <c r="C33" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>1861</v>
+      </c>
+      <c r="B34" t="s">
+        <v>908</v>
+      </c>
+      <c r="C34" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>1930</v>
+      </c>
+      <c r="B35" t="s">
+        <v>865</v>
+      </c>
+      <c r="C35" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>2085</v>
+      </c>
+      <c r="B36" t="s">
+        <v>897</v>
+      </c>
+      <c r="C36" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>2104</v>
+      </c>
+      <c r="B37" t="s">
+        <v>912</v>
+      </c>
+      <c r="C37" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>2145</v>
+      </c>
+      <c r="B38" t="s">
+        <v>886</v>
+      </c>
+      <c r="C38" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>2169</v>
+      </c>
+      <c r="B39" t="s">
+        <v>867</v>
+      </c>
+      <c r="C39" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>2231</v>
+      </c>
+      <c r="B40" t="s">
+        <v>897</v>
+      </c>
+      <c r="C40" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>2250</v>
+      </c>
+      <c r="B41" t="s">
+        <v>897</v>
+      </c>
+      <c r="C41" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>2316</v>
+      </c>
+      <c r="B42" t="s">
+        <v>876</v>
+      </c>
+      <c r="C42" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>2382</v>
+      </c>
+      <c r="B43" t="s">
+        <v>919</v>
+      </c>
+      <c r="C43" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>2465</v>
+      </c>
+      <c r="B44" t="s">
+        <v>905</v>
+      </c>
+      <c r="C44" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>2514</v>
+      </c>
+      <c r="B45" t="s">
+        <v>922</v>
+      </c>
+      <c r="C45" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>2515</v>
+      </c>
+      <c r="B46" t="s">
+        <v>924</v>
+      </c>
+      <c r="C46" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>2621</v>
+      </c>
+      <c r="B47" t="s">
+        <v>926</v>
+      </c>
+      <c r="C47" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>2622</v>
+      </c>
+      <c r="B48" t="s">
+        <v>867</v>
+      </c>
+      <c r="C48" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>2635</v>
+      </c>
+      <c r="B49" t="s">
+        <v>892</v>
+      </c>
+      <c r="C49" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>2692</v>
+      </c>
+      <c r="B50" t="s">
+        <v>930</v>
+      </c>
+      <c r="C50" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>2694</v>
+      </c>
+      <c r="B51" t="s">
+        <v>863</v>
+      </c>
+      <c r="C51" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>2755</v>
+      </c>
+      <c r="B52" t="s">
+        <v>867</v>
+      </c>
+      <c r="C52" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>2803</v>
+      </c>
+      <c r="B53" t="s">
+        <v>886</v>
+      </c>
+      <c r="C53" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>2818</v>
+      </c>
+      <c r="B54" t="s">
+        <v>897</v>
+      </c>
+      <c r="C54" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>2825</v>
+      </c>
+      <c r="B55" t="s">
+        <v>886</v>
+      </c>
+      <c r="C55" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>2846</v>
+      </c>
+      <c r="B56" t="s">
+        <v>872</v>
+      </c>
+      <c r="C56" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>2856</v>
+      </c>
+      <c r="B57" t="s">
+        <v>900</v>
+      </c>
+      <c r="C57" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>2857</v>
+      </c>
+      <c r="B58" t="s">
+        <v>863</v>
+      </c>
+      <c r="C58" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>2936</v>
+      </c>
+      <c r="B59" t="s">
+        <v>940</v>
+      </c>
+      <c r="C59" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>2963</v>
+      </c>
+      <c r="B60" t="s">
+        <v>886</v>
+      </c>
+      <c r="C60" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>2968</v>
+      </c>
+      <c r="B61" t="s">
+        <v>897</v>
+      </c>
+      <c r="C61" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>3007</v>
+      </c>
+      <c r="B62" t="s">
+        <v>872</v>
+      </c>
+      <c r="C62" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>3158</v>
+      </c>
+      <c r="B63" t="s">
+        <v>872</v>
+      </c>
+      <c r="C63" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>3162</v>
+      </c>
+      <c r="B64" t="s">
+        <v>919</v>
+      </c>
+      <c r="C64" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>3208</v>
+      </c>
+      <c r="B65" t="s">
+        <v>897</v>
+      </c>
+      <c r="C65" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>3225</v>
+      </c>
+      <c r="B66" t="s">
+        <v>863</v>
+      </c>
+      <c r="C66" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>3289</v>
+      </c>
+      <c r="B67" t="s">
+        <v>876</v>
+      </c>
+      <c r="C67" t="s">
+        <v>949</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tables/crop_classifications/PT_PT_crop_classification_final.xlsx
+++ b/tables/crop_classifications/PT_PT_crop_classification_final.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\Europe-LAND\data\tables\crop_classifications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F0D70F-1E24-4596-9CDD-544BAF6A9AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC21725B-21AC-4435-A3B1-DD3A4CC218D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29616" yWindow="6624" windowWidth="13824" windowHeight="7224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$318</definedName>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2185" uniqueCount="1035">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="859">
   <si>
     <t>crop_code</t>
   </si>
@@ -2601,534 +2600,6 @@
   </si>
   <si>
     <t>other_plants_harvested_green</t>
-  </si>
-  <si>
-    <t>267.0</t>
-  </si>
-  <si>
-    <t>CONSOCIAÇÕES ANUAIS E OUTRAS CULTURAS FORRAGEIRAS</t>
-  </si>
-  <si>
-    <t>266.0</t>
-  </si>
-  <si>
-    <t>FIXADORAS AZOTO</t>
-  </si>
-  <si>
-    <t>982.0</t>
-  </si>
-  <si>
-    <t>CABECEIRAS CULT. PERMANENTES -ÁREA ÚTIL</t>
-  </si>
-  <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>SUPERFÍCIE NÃO PASTOREÁVEL</t>
-  </si>
-  <si>
-    <t>89.0</t>
-  </si>
-  <si>
-    <t>ELEMENTO LINEAR ARROZ - ÁREA COMPROMISSO</t>
-  </si>
-  <si>
-    <t>168.0</t>
-  </si>
-  <si>
-    <t>ACEIRO F</t>
-  </si>
-  <si>
-    <t>NÊSPERA</t>
-  </si>
-  <si>
-    <t>280.0</t>
-  </si>
-  <si>
-    <t>CANA DE AÇÚCAR</t>
-  </si>
-  <si>
-    <t>GALERIA RIPÍCOLA F</t>
-  </si>
-  <si>
-    <t>TALUDE</t>
-  </si>
-  <si>
-    <t>34.0</t>
-  </si>
-  <si>
-    <t>HIDROPONIA</t>
-  </si>
-  <si>
-    <t>SABUGUEIRO</t>
-  </si>
-  <si>
-    <t>CARQUEJA</t>
-  </si>
-  <si>
-    <t>MARALFALFA/CAPIM</t>
-  </si>
-  <si>
-    <t>165.0</t>
-  </si>
-  <si>
-    <t>POVOAMENTO MISTO QUERCUS(SOB/AZINH./CARVAL.NEGRAL)</t>
-  </si>
-  <si>
-    <t>ESPARGOS</t>
-  </si>
-  <si>
-    <t>94.0</t>
-  </si>
-  <si>
-    <t>GOIABA</t>
-  </si>
-  <si>
-    <t>143.0</t>
-  </si>
-  <si>
-    <t>GOJI</t>
-  </si>
-  <si>
-    <t>PHYSALIS</t>
-  </si>
-  <si>
-    <t>PITAIA</t>
-  </si>
-  <si>
-    <t>TALHADIA DE CURTA ROTAÇÃO</t>
-  </si>
-  <si>
-    <t>LINHO</t>
-  </si>
-  <si>
-    <t>135.0</t>
-  </si>
-  <si>
-    <t>ARAÇA</t>
-  </si>
-  <si>
-    <t>139.0</t>
-  </si>
-  <si>
-    <t>QUINOA</t>
-  </si>
-  <si>
-    <t>ELP VALA DE REGA OU DRENAGEM - ÁREA ÚTIL</t>
-  </si>
-  <si>
-    <t>83.0</t>
-  </si>
-  <si>
-    <t>OUTROS FRUTOS FRESCOS</t>
-  </si>
-  <si>
-    <t>CONS FIXADORAS AZOTO (+ 50% FIX AZOTO)</t>
-  </si>
-  <si>
-    <t>142.0</t>
-  </si>
-  <si>
-    <t>GALERIA RIPÍCOLA FLORESTAL</t>
-  </si>
-  <si>
-    <t>FEIJÃO FRADE</t>
-  </si>
-  <si>
-    <t>ELP CHARCAS E LAGOAS - ÁREA ÚTIL</t>
-  </si>
-  <si>
-    <t>MILHO DOCE</t>
-  </si>
-  <si>
-    <t>24.0</t>
-  </si>
-  <si>
-    <t>TRIGO-SARRACENO</t>
-  </si>
-  <si>
-    <t>CÁRTAMO</t>
-  </si>
-  <si>
-    <t>111.0</t>
-  </si>
-  <si>
-    <t>LIMA</t>
-  </si>
-  <si>
-    <t>SUPERFICIE NÃO AGRICOLA</t>
-  </si>
-  <si>
-    <t>ELP MURO DE PEDRA POSTA - ÁREA ÚTIL</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>CHICHARO</t>
-  </si>
-  <si>
-    <t>ELP PATRIMÓNIO CULTURAL - ÁREA ÚTIL</t>
-  </si>
-  <si>
-    <t>ARAÇÁ</t>
-  </si>
-  <si>
-    <t>BAMBU</t>
-  </si>
-  <si>
-    <t>ALGODÃO</t>
-  </si>
-  <si>
-    <t>MILHO PAINÇO</t>
-  </si>
-  <si>
-    <t>103.0</t>
-  </si>
-  <si>
-    <t>LENTILHA</t>
-  </si>
-  <si>
-    <t>BERSIM</t>
-  </si>
-  <si>
-    <t>32.0</t>
-  </si>
-  <si>
-    <t>CANÓNIGOS</t>
-  </si>
-  <si>
-    <t>262.0</t>
-  </si>
-  <si>
-    <t>FUNCHO</t>
-  </si>
-  <si>
-    <t>162.0</t>
-  </si>
-  <si>
-    <t>TAGASASTE</t>
-  </si>
-  <si>
-    <t>CLEMENTINA</t>
-  </si>
-  <si>
-    <t>QUIABO</t>
-  </si>
-  <si>
-    <t>47.0</t>
-  </si>
-  <si>
-    <t>LUZERNA ARBÓREA</t>
-  </si>
-  <si>
-    <t>TORANJA</t>
-  </si>
-  <si>
-    <t>PLANTAS ORNAMENTAIS PERMANENTES</t>
-  </si>
-  <si>
-    <t>TAMARILHO</t>
-  </si>
-  <si>
-    <t>TREVO-DE-CHEIRO</t>
-  </si>
-  <si>
-    <t>CARDO</t>
-  </si>
-  <si>
-    <t>ALCACHOFRA</t>
-  </si>
-  <si>
-    <t>SÉSAMO</t>
-  </si>
-  <si>
-    <t>TEFF</t>
-  </si>
-  <si>
-    <t>265.0</t>
-  </si>
-  <si>
-    <t>FACÉLIA</t>
-  </si>
-  <si>
-    <t>BELDROEGA</t>
-  </si>
-  <si>
-    <t>CIDRA</t>
-  </si>
-  <si>
-    <t>FENO-GREGO E FENACHOS</t>
-  </si>
-  <si>
-    <t>MOSTAJEIRO</t>
-  </si>
-  <si>
-    <t>CHEROVIA</t>
-  </si>
-  <si>
-    <t>SANFENO</t>
-  </si>
-  <si>
-    <t>KUMQUAT</t>
-  </si>
-  <si>
-    <t>ANANÁS</t>
-  </si>
-  <si>
-    <t>ANNUAL INTERCROPS AND OTHER FORAGE CROPS</t>
-  </si>
-  <si>
-    <t>NITROGEN-FIXING</t>
-  </si>
-  <si>
-    <t>HEADLANDS PERMANENT CROPS AREA</t>
-  </si>
-  <si>
-    <t>NON-GRAZABLE AREA</t>
-  </si>
-  <si>
-    <t>LINEAR ELEMENT RICE - COMMITTED AREA</t>
-  </si>
-  <si>
-    <t>RICE F</t>
-  </si>
-  <si>
-    <t>SPRING</t>
-  </si>
-  <si>
-    <t>RIPARIAN GALLERY F</t>
-  </si>
-  <si>
-    <t>HYDROPONIA</t>
-  </si>
-  <si>
-    <t>SABBATH</t>
-  </si>
-  <si>
-    <t>MIXED STAND QUERCUS(SOB/AZINH./CARVAL.NEGRAL)</t>
-  </si>
-  <si>
-    <t>SPARKLES</t>
-  </si>
-  <si>
-    <t>SHORT ROTATION COPPICE</t>
-  </si>
-  <si>
-    <t>LINE</t>
-  </si>
-  <si>
-    <t>GRACE</t>
-  </si>
-  <si>
-    <t>ELP IRRIGATION OR DRAINAGE DITCH - USEFUL AREA</t>
-  </si>
-  <si>
-    <t>NITROGEN-FIXING PLANTS (+ 50% NITROGEN FIX)</t>
-  </si>
-  <si>
-    <t>RIPARIAN GALLERY FOREST</t>
-  </si>
-  <si>
-    <t>FRESH BEANS</t>
-  </si>
-  <si>
-    <t>ELP PONDS AND LAGOONS - USABLE AREA</t>
-  </si>
-  <si>
-    <t>SWEET CORN</t>
-  </si>
-  <si>
-    <t>BUCKWHEAT</t>
-  </si>
-  <si>
-    <t>CARTAMO</t>
-  </si>
-  <si>
-    <t>NON-AGRICULTURAL SURFACE</t>
-  </si>
-  <si>
-    <t>ELP STONE WALL - USABLE AREA</t>
-  </si>
-  <si>
-    <t>ELP CULTURAL HERITAGE - USABLE AREA</t>
-  </si>
-  <si>
-    <t>BAMBOO</t>
-  </si>
-  <si>
-    <t>MAIZE PINE</t>
-  </si>
-  <si>
-    <t>LENTIL</t>
-  </si>
-  <si>
-    <t>CANNONS</t>
-  </si>
-  <si>
-    <t>FLAVOUR</t>
-  </si>
-  <si>
-    <t>KIABO</t>
-  </si>
-  <si>
-    <t>TREE LUCERNE</t>
-  </si>
-  <si>
-    <t>TORANGE</t>
-  </si>
-  <si>
-    <t>PERMANENT ORNAMENTAL PLANTS</t>
-  </si>
-  <si>
-    <t>SADDLE</t>
-  </si>
-  <si>
-    <t>CARDOUS</t>
-  </si>
-  <si>
-    <t>SESAME</t>
-  </si>
-  <si>
-    <t>FACELIA</t>
-  </si>
-  <si>
-    <t>FENUGREEK AND FENACHOS</t>
-  </si>
-  <si>
-    <t>PINEAPPLE</t>
-  </si>
-  <si>
-    <t>EINJÄHRIGE ZWISCHENFRÜCHTE UND ANDERE FUTTERPFLANZEN</t>
-  </si>
-  <si>
-    <t>STICKSTOFFBINDENDE PFLANZEN</t>
-  </si>
-  <si>
-    <t>VORGEWENDE DAUERKULTUREN FLÄCHE</t>
-  </si>
-  <si>
-    <t>NICHT-GRAZIERBARE FLÄCHE</t>
-  </si>
-  <si>
-    <t>LINEARES ELEMENT REIS - GEBUNDENE FLÄCHE</t>
-  </si>
-  <si>
-    <t>REIS F</t>
-  </si>
-  <si>
-    <t>FRÜHLING</t>
-  </si>
-  <si>
-    <t>ZUCKERKANNE</t>
-  </si>
-  <si>
-    <t>MISCHBESTAND QUERCUS(SOB/AZINH./CARVAL.NEGRAL)</t>
-  </si>
-  <si>
-    <t>KURZUMTRIEBSPLANTAGE</t>
-  </si>
-  <si>
-    <t>ELP BEWÄSSERUNG ODER ENTWÄSSERUNGSGRABEN - NUTZFLÄCHE</t>
-  </si>
-  <si>
-    <t>ANDERES FRISCHOBST</t>
-  </si>
-  <si>
-    <t>STICKSTOFFBINDENDE PFLANZEN (+ 50% STICKSTOFFBINDUNG)</t>
-  </si>
-  <si>
-    <t>GALERIEWALD AM FLUSSUFER</t>
-  </si>
-  <si>
-    <t>FRISCHE BIENEN</t>
-  </si>
-  <si>
-    <t>ELP TEICHE UND LAGUNEN - NUTZBARE FLÄCHE</t>
-  </si>
-  <si>
-    <t>SÜSSKORN</t>
-  </si>
-  <si>
-    <t>BUCHWEIZER</t>
-  </si>
-  <si>
-    <t>KARTAMO</t>
-  </si>
-  <si>
-    <t>NICHT-LANDWIRTSCHAFTLICHE FLÄCHE</t>
-  </si>
-  <si>
-    <t>ELP STEINMAUER - NUTZBARE FLÄCHE</t>
-  </si>
-  <si>
-    <t>ELP KULTURELLES ERBE - NUTZBARE FLÄCHE</t>
-  </si>
-  <si>
-    <t>BAMBUS</t>
-  </si>
-  <si>
-    <t>MAIS KIEFER</t>
-  </si>
-  <si>
-    <t>KANNEN</t>
-  </si>
-  <si>
-    <t>GESCHMACK</t>
-  </si>
-  <si>
-    <t>BAUM LUCERNE</t>
-  </si>
-  <si>
-    <t>DAUERKULTUREN ZU ZIERZWECKEN</t>
-  </si>
-  <si>
-    <t>KARDOUS</t>
-  </si>
-  <si>
-    <t>SESAM</t>
-  </si>
-  <si>
-    <t>BOCKSHORNKLEE UND FENACHOS</t>
-  </si>
-  <si>
-    <t>ANPFLANZEN</t>
-  </si>
-  <si>
-    <t>plants_harvested_green</t>
-  </si>
-  <si>
-    <t>medlar_loquat</t>
-  </si>
-  <si>
-    <t>quinoa</t>
-  </si>
-  <si>
-    <t>buckwheat</t>
-  </si>
-  <si>
-    <t>safflower</t>
-  </si>
-  <si>
-    <t>lentils</t>
-  </si>
-  <si>
-    <t>fennel</t>
-  </si>
-  <si>
-    <t>sida_virginia_mallow</t>
-  </si>
-  <si>
-    <t>artichoke</t>
-  </si>
-  <si>
-    <t>phacelia</t>
-  </si>
-  <si>
-    <t>fenugreek</t>
-  </si>
-  <si>
-    <t>parsnips</t>
   </si>
 </sst>
 </file>
@@ -3517,10 +2988,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H385"/>
+  <dimension ref="A1:H318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A338" workbookViewId="0">
-      <selection activeCell="F387" sqref="F387"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A150" sqref="A150:XFD150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9463,9 +8934,7 @@
       <c r="D250" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="E250" s="2" t="s">
-        <v>246</v>
-      </c>
+      <c r="E250" s="2"/>
       <c r="F250" s="2" t="s">
         <v>8</v>
       </c>
@@ -9489,9 +8958,7 @@
       <c r="D251" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E251" s="2" t="s">
-        <v>181</v>
-      </c>
+      <c r="E251" s="2"/>
       <c r="F251" s="2" t="s">
         <v>8</v>
       </c>
@@ -9515,9 +8982,7 @@
       <c r="D252" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="E252" s="2" t="s">
-        <v>249</v>
-      </c>
+      <c r="E252" s="2"/>
       <c r="F252" s="2" t="s">
         <v>8</v>
       </c>
@@ -9541,9 +9006,7 @@
       <c r="D253" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E253" s="2" t="s">
-        <v>120</v>
-      </c>
+      <c r="E253" s="2"/>
       <c r="F253" s="2" t="s">
         <v>8</v>
       </c>
@@ -9567,9 +9030,7 @@
       <c r="D254" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E254" s="2" t="s">
-        <v>172</v>
-      </c>
+      <c r="E254" s="2"/>
       <c r="F254" s="2" t="s">
         <v>8</v>
       </c>
@@ -9593,9 +9054,7 @@
       <c r="D255" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E255" s="2" t="s">
-        <v>94</v>
-      </c>
+      <c r="E255" s="2"/>
       <c r="F255" s="2" t="s">
         <v>8</v>
       </c>
@@ -9619,9 +9078,7 @@
       <c r="D256" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="E256" s="2" t="s">
-        <v>283</v>
-      </c>
+      <c r="E256" s="2"/>
       <c r="F256" s="2" t="s">
         <v>8</v>
       </c>
@@ -9645,9 +9102,7 @@
       <c r="D257" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="E257" s="2" t="s">
-        <v>286</v>
-      </c>
+      <c r="E257" s="2"/>
       <c r="F257" s="2" t="s">
         <v>8</v>
       </c>
@@ -9671,9 +9126,7 @@
       <c r="D258" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="E258" s="2" t="s">
-        <v>586</v>
-      </c>
+      <c r="E258" s="2"/>
       <c r="F258" s="2" t="s">
         <v>8</v>
       </c>
@@ -9697,9 +9150,7 @@
       <c r="D259" s="2" t="s">
         <v>821</v>
       </c>
-      <c r="E259" s="2" t="s">
-        <v>821</v>
-      </c>
+      <c r="E259" s="2"/>
       <c r="F259" s="2" t="s">
         <v>8</v>
       </c>
@@ -9723,9 +9174,7 @@
       <c r="D260" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="E260" s="2" t="s">
-        <v>318</v>
-      </c>
+      <c r="E260" s="2"/>
       <c r="F260" s="2" t="s">
         <v>8</v>
       </c>
@@ -9749,9 +9198,7 @@
       <c r="D261" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="E261" s="2" t="s">
-        <v>169</v>
-      </c>
+      <c r="E261" s="2"/>
       <c r="F261" s="2" t="s">
         <v>8</v>
       </c>
@@ -9775,9 +9222,7 @@
       <c r="D262" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="E262" s="2" t="s">
-        <v>395</v>
-      </c>
+      <c r="E262" s="2"/>
       <c r="F262" s="2" t="s">
         <v>8</v>
       </c>
@@ -9801,9 +9246,7 @@
       <c r="D263" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="E263" s="2" t="s">
-        <v>663</v>
-      </c>
+      <c r="E263" s="2"/>
       <c r="F263" s="2" t="s">
         <v>8</v>
       </c>
@@ -9827,9 +9270,7 @@
       <c r="D264" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E264" s="2" t="s">
-        <v>178</v>
-      </c>
+      <c r="E264" s="2"/>
       <c r="F264" s="2" t="s">
         <v>8</v>
       </c>
@@ -9853,9 +9294,7 @@
       <c r="D265" s="2" t="s">
         <v>836</v>
       </c>
-      <c r="E265" s="2" t="s">
-        <v>836</v>
-      </c>
+      <c r="E265" s="2"/>
       <c r="F265" s="2" t="s">
         <v>8</v>
       </c>
@@ -9879,9 +9318,7 @@
       <c r="D266" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="E266" s="2" t="s">
-        <v>402</v>
-      </c>
+      <c r="E266" s="2"/>
       <c r="F266" s="2" t="s">
         <v>8</v>
       </c>
@@ -9905,9 +9342,7 @@
       <c r="D267" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="E267" s="2" t="s">
-        <v>294</v>
-      </c>
+      <c r="E267" s="2"/>
       <c r="F267" s="4" t="s">
         <v>8</v>
       </c>
@@ -9931,9 +9366,7 @@
       <c r="D268" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="E268" s="2" t="s">
-        <v>429</v>
-      </c>
+      <c r="E268" s="2"/>
       <c r="F268" s="2" t="s">
         <v>8</v>
       </c>
@@ -9957,9 +9390,7 @@
       <c r="D269" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="E269" s="2" t="s">
-        <v>269</v>
-      </c>
+      <c r="E269" s="2"/>
       <c r="F269" s="4" t="s">
         <v>8</v>
       </c>
@@ -9983,9 +9414,7 @@
       <c r="D270" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="E270" s="2" t="s">
-        <v>322</v>
-      </c>
+      <c r="E270" s="2"/>
       <c r="F270" s="2" t="s">
         <v>8</v>
       </c>
@@ -10009,9 +9438,7 @@
       <c r="D271" s="2" t="s">
         <v>839</v>
       </c>
-      <c r="E271" s="2" t="s">
-        <v>839</v>
-      </c>
+      <c r="E271" s="2"/>
       <c r="F271" s="3" t="s">
         <v>840</v>
       </c>
@@ -10036,7 +9463,7 @@
         <v>86</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>86</v>
+        <v>794</v>
       </c>
       <c r="F272" s="2" t="s">
         <v>795</v>
@@ -10061,9 +9488,7 @@
       <c r="D273" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="E273" s="2" t="s">
-        <v>243</v>
-      </c>
+      <c r="E273" s="2"/>
       <c r="F273" s="2" t="s">
         <v>240</v>
       </c>
@@ -10087,9 +9512,7 @@
       <c r="D274" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E274" s="2" t="s">
-        <v>87</v>
-      </c>
+      <c r="E274" s="2"/>
       <c r="F274" s="3" t="s">
         <v>281</v>
       </c>
@@ -10113,9 +9536,7 @@
       <c r="D275" s="2" t="s">
         <v>752</v>
       </c>
-      <c r="E275" s="2" t="s">
-        <v>752</v>
-      </c>
+      <c r="E275" s="2"/>
       <c r="F275" s="3" t="s">
         <v>841</v>
       </c>
@@ -10139,9 +9560,7 @@
       <c r="D276" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E276" s="2" t="s">
-        <v>116</v>
-      </c>
+      <c r="E276" s="2"/>
       <c r="F276" s="2" t="s">
         <v>281</v>
       </c>
@@ -10165,9 +9584,7 @@
       <c r="D277" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E277" s="2" t="s">
-        <v>161</v>
-      </c>
+      <c r="E277" s="2"/>
       <c r="F277" s="3" t="s">
         <v>842</v>
       </c>
@@ -10191,9 +9608,7 @@
       <c r="D278" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E278" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="E278" s="2"/>
       <c r="F278" s="2" t="s">
         <v>43</v>
       </c>
@@ -10217,9 +9632,7 @@
       <c r="D279" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E279" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="E279" s="2"/>
       <c r="F279" s="3" t="s">
         <v>844</v>
       </c>
@@ -10243,9 +9656,7 @@
       <c r="D280" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E280" s="2" t="s">
-        <v>266</v>
-      </c>
+      <c r="E280" s="2"/>
       <c r="F280" s="3" t="s">
         <v>547</v>
       </c>
@@ -10269,9 +9680,7 @@
       <c r="D281" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="E281" s="2" t="s">
-        <v>634</v>
-      </c>
+      <c r="E281" s="2"/>
       <c r="F281" s="3" t="s">
         <v>845</v>
       </c>
@@ -10295,9 +9704,7 @@
       <c r="D282" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="E282" s="2" t="s">
-        <v>390</v>
-      </c>
+      <c r="E282" s="2"/>
       <c r="F282" s="3" t="s">
         <v>846</v>
       </c>
@@ -10321,9 +9728,7 @@
       <c r="D283" s="2" t="s">
         <v>756</v>
       </c>
-      <c r="E283" s="2" t="s">
-        <v>756</v>
-      </c>
+      <c r="E283" s="2"/>
       <c r="F283" s="3" t="s">
         <v>847</v>
       </c>
@@ -10347,9 +9752,7 @@
       <c r="D284" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="E284" s="2" t="s">
-        <v>304</v>
-      </c>
+      <c r="E284" s="2"/>
       <c r="F284" s="2" t="s">
         <v>43</v>
       </c>
@@ -10373,9 +9776,7 @@
       <c r="D285" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="E285" s="2" t="s">
-        <v>348</v>
-      </c>
+      <c r="E285" s="2"/>
       <c r="F285" s="3" t="s">
         <v>842</v>
       </c>
@@ -10399,9 +9800,7 @@
       <c r="D286" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="E286" s="2" t="s">
-        <v>271</v>
-      </c>
+      <c r="E286" s="2"/>
       <c r="F286" s="3" t="s">
         <v>848</v>
       </c>
@@ -10425,9 +9824,7 @@
       <c r="D287" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="E287" s="2" t="s">
-        <v>422</v>
-      </c>
+      <c r="E287" s="2"/>
       <c r="F287" s="3" t="s">
         <v>849</v>
       </c>
@@ -10451,9 +9848,7 @@
       <c r="D288" s="2" t="s">
         <v>750</v>
       </c>
-      <c r="E288" s="2" t="s">
-        <v>750</v>
-      </c>
+      <c r="E288" s="2"/>
       <c r="F288" s="3" t="s">
         <v>850</v>
       </c>
@@ -10477,9 +9872,7 @@
       <c r="D289" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="E289" s="2" t="s">
-        <v>408</v>
-      </c>
+      <c r="E289" s="2"/>
       <c r="F289" s="3" t="s">
         <v>406</v>
       </c>
@@ -10503,9 +9896,7 @@
       <c r="D290" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="E290" s="2" t="s">
-        <v>419</v>
-      </c>
+      <c r="E290" s="2"/>
       <c r="F290" s="3" t="s">
         <v>851</v>
       </c>
@@ -10529,9 +9920,7 @@
       <c r="D291" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="E291" s="2" t="s">
-        <v>431</v>
-      </c>
+      <c r="E291" s="2"/>
       <c r="F291" s="2" t="s">
         <v>281</v>
       </c>
@@ -10555,9 +9944,7 @@
       <c r="D292" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="E292" s="2" t="s">
-        <v>435</v>
-      </c>
+      <c r="E292" s="2"/>
       <c r="F292" s="3" t="s">
         <v>842</v>
       </c>
@@ -10581,9 +9968,7 @@
       <c r="D293" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="E293" s="2" t="s">
-        <v>536</v>
-      </c>
+      <c r="E293" s="2"/>
       <c r="F293" s="2" t="s">
         <v>281</v>
       </c>
@@ -10607,9 +9992,7 @@
       <c r="D294" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="E294" s="2" t="s">
-        <v>620</v>
-      </c>
+      <c r="E294" s="2"/>
       <c r="F294" s="3" t="s">
         <v>842</v>
       </c>
@@ -10633,9 +10016,7 @@
       <c r="D295" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="E295" s="2" t="s">
-        <v>622</v>
-      </c>
+      <c r="E295" s="2"/>
       <c r="F295" s="2" t="s">
         <v>281</v>
       </c>
@@ -10659,9 +10040,7 @@
       <c r="D296" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="E296" s="2" t="s">
-        <v>433</v>
-      </c>
+      <c r="E296" s="2"/>
       <c r="F296" s="2" t="s">
         <v>281</v>
       </c>
@@ -10685,9 +10064,7 @@
       <c r="D297" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="E297" s="2" t="s">
-        <v>629</v>
-      </c>
+      <c r="E297" s="2"/>
       <c r="F297" s="3" t="s">
         <v>451</v>
       </c>
@@ -10711,9 +10088,7 @@
       <c r="D298" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="E298" s="2" t="s">
-        <v>650</v>
-      </c>
+      <c r="E298" s="2"/>
       <c r="F298" s="3" t="s">
         <v>43</v>
       </c>
@@ -10737,9 +10112,7 @@
       <c r="D299" s="2" t="s">
         <v>741</v>
       </c>
-      <c r="E299" s="2" t="s">
-        <v>741</v>
-      </c>
+      <c r="E299" s="2"/>
       <c r="F299" s="3" t="s">
         <v>850</v>
       </c>
@@ -10763,9 +10136,7 @@
       <c r="D300" s="2" t="s">
         <v>747</v>
       </c>
-      <c r="E300" s="2" t="s">
-        <v>747</v>
-      </c>
+      <c r="E300" s="2"/>
       <c r="F300" s="3" t="s">
         <v>530</v>
       </c>
@@ -10789,9 +10160,7 @@
       <c r="D301" s="2" t="s">
         <v>764</v>
       </c>
-      <c r="E301" s="2" t="s">
-        <v>764</v>
-      </c>
+      <c r="E301" s="2"/>
       <c r="F301" s="3" t="s">
         <v>843</v>
       </c>
@@ -10815,9 +10184,7 @@
       <c r="D302" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E302" s="2" t="s">
-        <v>174</v>
-      </c>
+      <c r="E302" s="2"/>
       <c r="F302" s="3" t="s">
         <v>852</v>
       </c>
@@ -10841,9 +10208,7 @@
       <c r="D303" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="E303" s="2" t="s">
-        <v>778</v>
-      </c>
+      <c r="E303" s="2"/>
       <c r="F303" s="2" t="s">
         <v>281</v>
       </c>
@@ -10867,9 +10232,7 @@
       <c r="D304" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="E304" s="2" t="s">
-        <v>780</v>
-      </c>
+      <c r="E304" s="2"/>
       <c r="F304" s="2" t="s">
         <v>281</v>
       </c>
@@ -10893,9 +10256,7 @@
       <c r="D305" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="E305" s="2" t="s">
-        <v>228</v>
-      </c>
+      <c r="E305" s="2"/>
       <c r="F305" s="2" t="s">
         <v>858</v>
       </c>
@@ -10919,9 +10280,7 @@
       <c r="D306" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="E306" s="2" t="s">
-        <v>774</v>
-      </c>
+      <c r="E306" s="2"/>
       <c r="F306" s="3" t="s">
         <v>853</v>
       </c>
@@ -10945,9 +10304,7 @@
       <c r="D307" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="E307" s="2" t="s">
-        <v>311</v>
-      </c>
+      <c r="E307" s="2"/>
       <c r="F307" s="3" t="s">
         <v>854</v>
       </c>
@@ -10971,9 +10328,7 @@
       <c r="D308" s="2" t="s">
         <v>777</v>
       </c>
-      <c r="E308" s="2" t="s">
-        <v>777</v>
-      </c>
+      <c r="E308" s="2"/>
       <c r="F308" s="3" t="s">
         <v>825</v>
       </c>
@@ -10997,9 +10352,7 @@
       <c r="D309" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="E309" s="2" t="s">
-        <v>398</v>
-      </c>
+      <c r="E309" s="2"/>
       <c r="F309" s="2" t="s">
         <v>855</v>
       </c>
@@ -11170,1346 +10523,6 @@
       </c>
       <c r="H318" s="5" t="s">
         <v>857</v>
-      </c>
-    </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B319" s="2" t="s">
-        <v>860</v>
-      </c>
-      <c r="C319" t="s">
-        <v>991</v>
-      </c>
-      <c r="D319" t="s">
-        <v>950</v>
-      </c>
-      <c r="E319" t="s">
-        <v>950</v>
-      </c>
-      <c r="F319" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="G319" s="2">
-        <v>3301090000</v>
-      </c>
-    </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B320" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="C320" t="s">
-        <v>992</v>
-      </c>
-      <c r="D320" t="s">
-        <v>951</v>
-      </c>
-      <c r="E320" t="s">
-        <v>951</v>
-      </c>
-      <c r="F320" s="2" t="s">
-        <v>759</v>
-      </c>
-      <c r="G320" s="2">
-        <v>3301090300</v>
-      </c>
-    </row>
-    <row r="321" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B321" s="2" t="s">
-        <v>864</v>
-      </c>
-      <c r="C321" t="s">
-        <v>993</v>
-      </c>
-      <c r="D321" t="s">
-        <v>952</v>
-      </c>
-      <c r="E321" t="s">
-        <v>952</v>
-      </c>
-      <c r="F321" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="G321" s="2">
-        <v>3303990000</v>
-      </c>
-    </row>
-    <row r="322" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B322" s="2" t="s">
-        <v>866</v>
-      </c>
-      <c r="C322" t="s">
-        <v>994</v>
-      </c>
-      <c r="D322" t="s">
-        <v>953</v>
-      </c>
-      <c r="E322" t="s">
-        <v>953</v>
-      </c>
-      <c r="F322" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G322" s="7">
-        <v>3399000000</v>
-      </c>
-    </row>
-    <row r="323" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B323" s="2" t="s">
-        <v>868</v>
-      </c>
-      <c r="C323" t="s">
-        <v>995</v>
-      </c>
-      <c r="D323" t="s">
-        <v>954</v>
-      </c>
-      <c r="E323" t="s">
-        <v>954</v>
-      </c>
-      <c r="F323" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G323" s="2">
-        <v>3301010700</v>
-      </c>
-    </row>
-    <row r="324" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B324" s="2" t="s">
-        <v>870</v>
-      </c>
-      <c r="C324" t="s">
-        <v>996</v>
-      </c>
-      <c r="D324" t="s">
-        <v>955</v>
-      </c>
-      <c r="E324" t="s">
-        <v>955</v>
-      </c>
-      <c r="F324" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G324" s="2">
-        <v>3301010700</v>
-      </c>
-    </row>
-    <row r="325" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B325" s="2" t="s">
-        <v>871</v>
-      </c>
-      <c r="C325" t="s">
-        <v>997</v>
-      </c>
-      <c r="D325" t="s">
-        <v>956</v>
-      </c>
-      <c r="E325" t="s">
-        <v>956</v>
-      </c>
-      <c r="F325" s="2" t="s">
-        <v>1024</v>
-      </c>
-      <c r="G325" s="2">
-        <v>3303010800</v>
-      </c>
-    </row>
-    <row r="326" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B326" s="2" t="s">
-        <v>873</v>
-      </c>
-      <c r="C326" t="s">
-        <v>998</v>
-      </c>
-      <c r="D326" t="s">
-        <v>174</v>
-      </c>
-      <c r="E326" t="s">
-        <v>174</v>
-      </c>
-      <c r="F326" s="2" t="s">
-        <v>852</v>
-      </c>
-      <c r="G326" s="2">
-        <v>3301069900</v>
-      </c>
-    </row>
-    <row r="327" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B327" s="2" t="s">
-        <v>874</v>
-      </c>
-      <c r="C327" t="s">
-        <v>957</v>
-      </c>
-      <c r="D327" t="s">
-        <v>957</v>
-      </c>
-      <c r="E327" t="s">
-        <v>957</v>
-      </c>
-      <c r="F327" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G327" s="7">
-        <v>3399000000</v>
-      </c>
-    </row>
-    <row r="328" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B328" s="2" t="s">
-        <v>875</v>
-      </c>
-      <c r="C328" t="s">
-        <v>875</v>
-      </c>
-      <c r="D328" t="s">
-        <v>875</v>
-      </c>
-      <c r="E328" t="s">
-        <v>875</v>
-      </c>
-      <c r="F328" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G328" s="7">
-        <v>3399000000</v>
-      </c>
-    </row>
-    <row r="329" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B329" s="2" t="s">
-        <v>877</v>
-      </c>
-      <c r="C329" t="s">
-        <v>958</v>
-      </c>
-      <c r="D329" t="s">
-        <v>958</v>
-      </c>
-      <c r="E329" t="s">
-        <v>958</v>
-      </c>
-      <c r="F329" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G329" s="7">
-        <v>3399000000</v>
-      </c>
-    </row>
-    <row r="330" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B330" s="2" t="s">
-        <v>878</v>
-      </c>
-      <c r="C330" t="s">
-        <v>959</v>
-      </c>
-      <c r="D330" t="s">
-        <v>959</v>
-      </c>
-      <c r="E330" t="s">
-        <v>959</v>
-      </c>
-      <c r="F330" s="2" t="s">
-        <v>847</v>
-      </c>
-      <c r="G330" s="2">
-        <v>3303080400</v>
-      </c>
-    </row>
-    <row r="331" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B331" s="2" t="s">
-        <v>879</v>
-      </c>
-      <c r="C331" t="s">
-        <v>879</v>
-      </c>
-      <c r="D331" t="s">
-        <v>879</v>
-      </c>
-      <c r="E331" t="s">
-        <v>879</v>
-      </c>
-      <c r="F331" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="G331" s="2">
-        <v>3301061200</v>
-      </c>
-    </row>
-    <row r="332" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B332" s="2" t="s">
-        <v>880</v>
-      </c>
-      <c r="C332" t="s">
-        <v>880</v>
-      </c>
-      <c r="D332" t="s">
-        <v>880</v>
-      </c>
-      <c r="E332" t="s">
-        <v>880</v>
-      </c>
-      <c r="F332" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="G332" s="2">
-        <v>3301090301</v>
-      </c>
-    </row>
-    <row r="333" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B333" s="2" t="s">
-        <v>882</v>
-      </c>
-      <c r="C333" t="s">
-        <v>999</v>
-      </c>
-      <c r="D333" t="s">
-        <v>960</v>
-      </c>
-      <c r="E333" t="s">
-        <v>960</v>
-      </c>
-      <c r="F333" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="G333" s="2">
-        <v>3306060000</v>
-      </c>
-    </row>
-    <row r="334" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B334" s="2" t="s">
-        <v>883</v>
-      </c>
-      <c r="C334" t="s">
-        <v>961</v>
-      </c>
-      <c r="D334" t="s">
-        <v>961</v>
-      </c>
-      <c r="E334" t="s">
-        <v>961</v>
-      </c>
-      <c r="F334" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G334" s="7">
-        <v>3399000000</v>
-      </c>
-    </row>
-    <row r="335" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B335" s="2" t="s">
-        <v>885</v>
-      </c>
-      <c r="C335" t="s">
-        <v>885</v>
-      </c>
-      <c r="D335" t="s">
-        <v>885</v>
-      </c>
-      <c r="E335" t="s">
-        <v>885</v>
-      </c>
-      <c r="F335" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="G335" s="2">
-        <v>3303010000</v>
-      </c>
-    </row>
-    <row r="336" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B336" s="2" t="s">
-        <v>887</v>
-      </c>
-      <c r="C336" t="s">
-        <v>887</v>
-      </c>
-      <c r="D336" t="s">
-        <v>887</v>
-      </c>
-      <c r="E336" t="s">
-        <v>887</v>
-      </c>
-      <c r="F336" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="G336" s="2">
-        <v>3303010000</v>
-      </c>
-    </row>
-    <row r="337" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B337" s="2" t="s">
-        <v>888</v>
-      </c>
-      <c r="C337" t="s">
-        <v>888</v>
-      </c>
-      <c r="D337" t="s">
-        <v>888</v>
-      </c>
-      <c r="E337" t="s">
-        <v>888</v>
-      </c>
-      <c r="F337" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="G337" s="2">
-        <v>3303010000</v>
-      </c>
-    </row>
-    <row r="338" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B338" s="2" t="s">
-        <v>889</v>
-      </c>
-      <c r="C338" t="s">
-        <v>889</v>
-      </c>
-      <c r="D338" t="s">
-        <v>889</v>
-      </c>
-      <c r="E338" t="s">
-        <v>889</v>
-      </c>
-      <c r="F338" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="G338" s="2">
-        <v>3303010000</v>
-      </c>
-    </row>
-    <row r="339" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B339" s="2" t="s">
-        <v>890</v>
-      </c>
-      <c r="C339" t="s">
-        <v>1000</v>
-      </c>
-      <c r="D339" t="s">
-        <v>962</v>
-      </c>
-      <c r="E339" t="s">
-        <v>962</v>
-      </c>
-      <c r="F339" s="2" t="s">
-        <v>852</v>
-      </c>
-      <c r="G339" s="2">
-        <v>3301069900</v>
-      </c>
-    </row>
-    <row r="340" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B340" s="2" t="s">
-        <v>891</v>
-      </c>
-      <c r="C340" t="s">
-        <v>963</v>
-      </c>
-      <c r="D340" t="s">
-        <v>963</v>
-      </c>
-      <c r="E340" t="s">
-        <v>963</v>
-      </c>
-      <c r="F340" s="2" t="s">
-        <v>852</v>
-      </c>
-      <c r="G340" s="2">
-        <v>3301069900</v>
-      </c>
-    </row>
-    <row r="341" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B341" s="2" t="s">
-        <v>893</v>
-      </c>
-      <c r="C341" t="s">
-        <v>964</v>
-      </c>
-      <c r="D341" t="s">
-        <v>964</v>
-      </c>
-      <c r="E341" t="s">
-        <v>964</v>
-      </c>
-      <c r="F341" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="G341" s="2">
-        <v>3303010000</v>
-      </c>
-    </row>
-    <row r="342" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B342" s="2" t="s">
-        <v>895</v>
-      </c>
-      <c r="C342" t="s">
-        <v>895</v>
-      </c>
-      <c r="D342" t="s">
-        <v>895</v>
-      </c>
-      <c r="E342" t="s">
-        <v>895</v>
-      </c>
-      <c r="F342" s="2" t="s">
-        <v>1025</v>
-      </c>
-      <c r="G342" s="2">
-        <v>3301150300</v>
-      </c>
-    </row>
-    <row r="343" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B343" s="2" t="s">
-        <v>896</v>
-      </c>
-      <c r="C343" t="s">
-        <v>1001</v>
-      </c>
-      <c r="D343" t="s">
-        <v>965</v>
-      </c>
-      <c r="E343" t="s">
-        <v>965</v>
-      </c>
-      <c r="F343" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G343" s="7">
-        <v>3399000000</v>
-      </c>
-    </row>
-    <row r="344" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B344" s="2" t="s">
-        <v>898</v>
-      </c>
-      <c r="C344" t="s">
-        <v>1002</v>
-      </c>
-      <c r="D344" t="s">
-        <v>552</v>
-      </c>
-      <c r="E344" t="s">
-        <v>552</v>
-      </c>
-      <c r="F344" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="G344" s="2">
-        <v>3303010000</v>
-      </c>
-    </row>
-    <row r="345" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B345" s="2" t="s">
-        <v>899</v>
-      </c>
-      <c r="C345" t="s">
-        <v>1003</v>
-      </c>
-      <c r="D345" t="s">
-        <v>966</v>
-      </c>
-      <c r="E345" t="s">
-        <v>966</v>
-      </c>
-      <c r="F345" s="2" t="s">
-        <v>759</v>
-      </c>
-      <c r="G345" s="2">
-        <v>3301090300</v>
-      </c>
-    </row>
-    <row r="346" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B346" s="2" t="s">
-        <v>901</v>
-      </c>
-      <c r="C346" t="s">
-        <v>1004</v>
-      </c>
-      <c r="D346" t="s">
-        <v>967</v>
-      </c>
-      <c r="E346" t="s">
-        <v>967</v>
-      </c>
-      <c r="F346" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G346" s="7">
-        <v>3399000000</v>
-      </c>
-    </row>
-    <row r="347" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B347" s="2" t="s">
-        <v>902</v>
-      </c>
-      <c r="C347" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D347" t="s">
-        <v>968</v>
-      </c>
-      <c r="E347" t="s">
-        <v>968</v>
-      </c>
-      <c r="F347" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="G347" s="2">
-        <v>3301020100</v>
-      </c>
-    </row>
-    <row r="348" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B348" s="2" t="s">
-        <v>903</v>
-      </c>
-      <c r="C348" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D348" t="s">
-        <v>969</v>
-      </c>
-      <c r="E348" t="s">
-        <v>969</v>
-      </c>
-      <c r="F348" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="G348" s="2">
-        <v>3301020100</v>
-      </c>
-    </row>
-    <row r="349" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B349" s="2" t="s">
-        <v>904</v>
-      </c>
-      <c r="C349" t="s">
-        <v>1007</v>
-      </c>
-      <c r="D349" t="s">
-        <v>970</v>
-      </c>
-      <c r="E349" t="s">
-        <v>970</v>
-      </c>
-      <c r="F349" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="G349" s="2">
-        <v>3301010600</v>
-      </c>
-    </row>
-    <row r="350" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B350" s="2" t="s">
-        <v>906</v>
-      </c>
-      <c r="C350" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D350" t="s">
-        <v>971</v>
-      </c>
-      <c r="E350" t="s">
-        <v>971</v>
-      </c>
-      <c r="F350" s="2" t="s">
-        <v>1026</v>
-      </c>
-      <c r="G350" s="2">
-        <v>3301150200</v>
-      </c>
-    </row>
-    <row r="351" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B351" s="2" t="s">
-        <v>907</v>
-      </c>
-      <c r="C351" t="s">
-        <v>1009</v>
-      </c>
-      <c r="D351" t="s">
-        <v>972</v>
-      </c>
-      <c r="E351" t="s">
-        <v>972</v>
-      </c>
-      <c r="F351" s="2" t="s">
-        <v>1027</v>
-      </c>
-      <c r="G351" s="2">
-        <v>3301083900</v>
-      </c>
-    </row>
-    <row r="352" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B352" s="2" t="s">
-        <v>909</v>
-      </c>
-      <c r="C352" t="s">
-        <v>909</v>
-      </c>
-      <c r="D352" t="s">
-        <v>909</v>
-      </c>
-      <c r="E352" t="s">
-        <v>909</v>
-      </c>
-      <c r="F352" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="G352" s="2">
-        <v>3301020600</v>
-      </c>
-    </row>
-    <row r="353" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B353" s="2" t="s">
-        <v>910</v>
-      </c>
-      <c r="C353" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D353" t="s">
-        <v>973</v>
-      </c>
-      <c r="E353" t="s">
-        <v>973</v>
-      </c>
-      <c r="F353" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G353" s="7">
-        <v>3399000000</v>
-      </c>
-    </row>
-    <row r="354" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B354" s="2" t="s">
-        <v>911</v>
-      </c>
-      <c r="C354" t="s">
-        <v>1011</v>
-      </c>
-      <c r="D354" t="s">
-        <v>974</v>
-      </c>
-      <c r="E354" t="s">
-        <v>974</v>
-      </c>
-      <c r="F354" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G354" s="7">
-        <v>3399000000</v>
-      </c>
-    </row>
-    <row r="355" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B355" s="2" t="s">
-        <v>913</v>
-      </c>
-      <c r="C355" t="s">
-        <v>913</v>
-      </c>
-      <c r="D355" t="s">
-        <v>913</v>
-      </c>
-      <c r="E355" t="s">
-        <v>913</v>
-      </c>
-      <c r="F355" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="G355" s="2">
-        <v>3301020600</v>
-      </c>
-    </row>
-    <row r="356" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B356" s="2" t="s">
-        <v>914</v>
-      </c>
-      <c r="C356" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D356" t="s">
-        <v>975</v>
-      </c>
-      <c r="E356" t="s">
-        <v>975</v>
-      </c>
-      <c r="F356" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G356" s="7">
-        <v>3399000000</v>
-      </c>
-    </row>
-    <row r="357" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B357" s="2" t="s">
-        <v>915</v>
-      </c>
-      <c r="C357" t="s">
-        <v>915</v>
-      </c>
-      <c r="D357" t="s">
-        <v>915</v>
-      </c>
-      <c r="E357" t="s">
-        <v>915</v>
-      </c>
-      <c r="F357" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="G357" s="2">
-        <v>3303010000</v>
-      </c>
-    </row>
-    <row r="358" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B358" s="2" t="s">
-        <v>916</v>
-      </c>
-      <c r="C358" t="s">
-        <v>1013</v>
-      </c>
-      <c r="D358" t="s">
-        <v>976</v>
-      </c>
-      <c r="E358" t="s">
-        <v>976</v>
-      </c>
-      <c r="F358" s="2" t="s">
-        <v>852</v>
-      </c>
-      <c r="G358" s="2">
-        <v>3301069900</v>
-      </c>
-    </row>
-    <row r="359" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B359" s="2" t="s">
-        <v>917</v>
-      </c>
-      <c r="C359" t="s">
-        <v>61</v>
-      </c>
-      <c r="D359" t="s">
-        <v>60</v>
-      </c>
-      <c r="E359" t="s">
-        <v>60</v>
-      </c>
-      <c r="F359" s="2" t="s">
-        <v>844</v>
-      </c>
-      <c r="G359" s="2">
-        <v>3301060300</v>
-      </c>
-    </row>
-    <row r="360" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B360" s="2" t="s">
-        <v>918</v>
-      </c>
-      <c r="C360" t="s">
-        <v>1014</v>
-      </c>
-      <c r="D360" t="s">
-        <v>977</v>
-      </c>
-      <c r="E360" t="s">
-        <v>977</v>
-      </c>
-      <c r="F360" s="2" t="s">
-        <v>767</v>
-      </c>
-      <c r="G360" s="2">
-        <v>3301010900</v>
-      </c>
-    </row>
-    <row r="361" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B361" s="2" t="s">
-        <v>920</v>
-      </c>
-      <c r="C361" t="s">
-        <v>978</v>
-      </c>
-      <c r="D361" t="s">
-        <v>978</v>
-      </c>
-      <c r="E361" t="s">
-        <v>978</v>
-      </c>
-      <c r="F361" s="2" t="s">
-        <v>1028</v>
-      </c>
-      <c r="G361" s="2">
-        <v>3301020500</v>
-      </c>
-    </row>
-    <row r="362" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B362" s="2" t="s">
-        <v>921</v>
-      </c>
-      <c r="C362" t="s">
-        <v>921</v>
-      </c>
-      <c r="D362" t="s">
-        <v>921</v>
-      </c>
-      <c r="E362" t="s">
-        <v>921</v>
-      </c>
-      <c r="F362" s="2" t="s">
-        <v>795</v>
-      </c>
-      <c r="G362" s="2">
-        <v>3301090303</v>
-      </c>
-    </row>
-    <row r="363" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B363" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C363" t="s">
-        <v>1015</v>
-      </c>
-      <c r="D363" t="s">
-        <v>979</v>
-      </c>
-      <c r="E363" t="s">
-        <v>979</v>
-      </c>
-      <c r="F363" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G363" s="2">
-        <v>3301310000</v>
-      </c>
-    </row>
-    <row r="364" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B364" s="2" t="s">
-        <v>925</v>
-      </c>
-      <c r="C364" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D364" t="s">
-        <v>980</v>
-      </c>
-      <c r="E364" t="s">
-        <v>980</v>
-      </c>
-      <c r="F364" s="2" t="s">
-        <v>1029</v>
-      </c>
-      <c r="G364" s="2">
-        <v>3301170000</v>
-      </c>
-    </row>
-    <row r="365" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B365" s="2" t="s">
-        <v>927</v>
-      </c>
-      <c r="C365" t="s">
-        <v>927</v>
-      </c>
-      <c r="D365" t="s">
-        <v>927</v>
-      </c>
-      <c r="E365" t="s">
-        <v>927</v>
-      </c>
-      <c r="F365" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="G365" s="2">
-        <v>3301090301</v>
-      </c>
-    </row>
-    <row r="366" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B366" s="2" t="s">
-        <v>928</v>
-      </c>
-      <c r="C366" t="s">
-        <v>928</v>
-      </c>
-      <c r="D366" t="s">
-        <v>928</v>
-      </c>
-      <c r="E366" t="s">
-        <v>928</v>
-      </c>
-      <c r="F366" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="G366" s="2">
-        <v>3303010000</v>
-      </c>
-    </row>
-    <row r="367" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B367" s="2" t="s">
-        <v>929</v>
-      </c>
-      <c r="C367" t="s">
-        <v>981</v>
-      </c>
-      <c r="D367" t="s">
-        <v>981</v>
-      </c>
-      <c r="E367" t="s">
-        <v>981</v>
-      </c>
-      <c r="F367" s="2" t="s">
-        <v>1030</v>
-      </c>
-      <c r="G367" s="2">
-        <v>3304030000</v>
-      </c>
-    </row>
-    <row r="368" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B368" s="2" t="s">
-        <v>931</v>
-      </c>
-      <c r="C368" t="s">
-        <v>1017</v>
-      </c>
-      <c r="D368" t="s">
-        <v>982</v>
-      </c>
-      <c r="E368" t="s">
-        <v>982</v>
-      </c>
-      <c r="F368" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="G368" s="2">
-        <v>3301090301</v>
-      </c>
-    </row>
-    <row r="369" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B369" s="2" t="s">
-        <v>932</v>
-      </c>
-      <c r="C369" t="s">
-        <v>983</v>
-      </c>
-      <c r="D369" t="s">
-        <v>983</v>
-      </c>
-      <c r="E369" t="s">
-        <v>983</v>
-      </c>
-      <c r="F369" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="G369" s="2">
-        <v>3303010000</v>
-      </c>
-    </row>
-    <row r="370" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B370" s="2" t="s">
-        <v>933</v>
-      </c>
-      <c r="C370" t="s">
-        <v>1018</v>
-      </c>
-      <c r="D370" t="s">
-        <v>984</v>
-      </c>
-      <c r="E370" t="s">
-        <v>984</v>
-      </c>
-      <c r="F370" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="G370" s="2">
-        <v>3303000000</v>
-      </c>
-    </row>
-    <row r="371" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B371" s="2" t="s">
-        <v>934</v>
-      </c>
-      <c r="C371" t="s">
-        <v>985</v>
-      </c>
-      <c r="D371" t="s">
-        <v>985</v>
-      </c>
-      <c r="E371" t="s">
-        <v>985</v>
-      </c>
-      <c r="F371" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="G371" s="2">
-        <v>3303010000</v>
-      </c>
-    </row>
-    <row r="372" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B372" s="2" t="s">
-        <v>935</v>
-      </c>
-      <c r="C372" t="s">
-        <v>794</v>
-      </c>
-      <c r="D372" t="s">
-        <v>794</v>
-      </c>
-      <c r="E372" t="s">
-        <v>794</v>
-      </c>
-      <c r="F372" s="2" t="s">
-        <v>795</v>
-      </c>
-      <c r="G372" s="2">
-        <v>3301090303</v>
-      </c>
-    </row>
-    <row r="373" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B373" s="2" t="s">
-        <v>936</v>
-      </c>
-      <c r="C373" t="s">
-        <v>1019</v>
-      </c>
-      <c r="D373" t="s">
-        <v>986</v>
-      </c>
-      <c r="E373" t="s">
-        <v>986</v>
-      </c>
-      <c r="F373" s="2" t="s">
-        <v>1031</v>
-      </c>
-      <c r="G373" s="2">
-        <v>3301270000</v>
-      </c>
-    </row>
-    <row r="374" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B374" s="2" t="s">
-        <v>937</v>
-      </c>
-      <c r="C374" t="s">
-        <v>937</v>
-      </c>
-      <c r="D374" t="s">
-        <v>937</v>
-      </c>
-      <c r="E374" t="s">
-        <v>937</v>
-      </c>
-      <c r="F374" s="2" t="s">
-        <v>1031</v>
-      </c>
-      <c r="G374" s="2">
-        <v>3301270000</v>
-      </c>
-    </row>
-    <row r="375" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B375" s="2" t="s">
-        <v>938</v>
-      </c>
-      <c r="C375" t="s">
-        <v>1020</v>
-      </c>
-      <c r="D375" t="s">
-        <v>987</v>
-      </c>
-      <c r="E375" t="s">
-        <v>987</v>
-      </c>
-      <c r="F375" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="G375" s="2">
-        <v>3301061200</v>
-      </c>
-    </row>
-    <row r="376" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B376" s="2" t="s">
-        <v>939</v>
-      </c>
-      <c r="C376" t="s">
-        <v>939</v>
-      </c>
-      <c r="D376" t="s">
-        <v>939</v>
-      </c>
-      <c r="E376" t="s">
-        <v>939</v>
-      </c>
-      <c r="F376" s="2" t="s">
-        <v>767</v>
-      </c>
-      <c r="G376" s="2">
-        <v>3301010900</v>
-      </c>
-    </row>
-    <row r="377" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B377" s="2" t="s">
-        <v>941</v>
-      </c>
-      <c r="C377" t="s">
-        <v>988</v>
-      </c>
-      <c r="D377" t="s">
-        <v>988</v>
-      </c>
-      <c r="E377" t="s">
-        <v>988</v>
-      </c>
-      <c r="F377" s="2" t="s">
-        <v>1032</v>
-      </c>
-      <c r="G377" s="2">
-        <v>3301061400</v>
-      </c>
-    </row>
-    <row r="378" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B378" s="2" t="s">
-        <v>942</v>
-      </c>
-      <c r="C378" t="s">
-        <v>942</v>
-      </c>
-      <c r="D378" t="s">
-        <v>942</v>
-      </c>
-      <c r="E378" t="s">
-        <v>942</v>
-      </c>
-      <c r="F378" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="G378" s="2">
-        <v>3301061200</v>
-      </c>
-    </row>
-    <row r="379" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B379" s="2" t="s">
-        <v>943</v>
-      </c>
-      <c r="C379" t="s">
-        <v>943</v>
-      </c>
-      <c r="D379" t="s">
-        <v>943</v>
-      </c>
-      <c r="E379" t="s">
-        <v>943</v>
-      </c>
-      <c r="F379" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="G379" s="2">
-        <v>3303010000</v>
-      </c>
-    </row>
-    <row r="380" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B380" s="2" t="s">
-        <v>944</v>
-      </c>
-      <c r="C380" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D380" t="s">
-        <v>989</v>
-      </c>
-      <c r="E380" t="s">
-        <v>989</v>
-      </c>
-      <c r="F380" s="2" t="s">
-        <v>1033</v>
-      </c>
-      <c r="G380" s="2">
-        <v>3301020400</v>
-      </c>
-    </row>
-    <row r="381" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B381" s="2" t="s">
-        <v>945</v>
-      </c>
-      <c r="C381" t="s">
-        <v>945</v>
-      </c>
-      <c r="D381" t="s">
-        <v>945</v>
-      </c>
-      <c r="E381" t="s">
-        <v>945</v>
-      </c>
-      <c r="F381" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G381" s="2">
-        <v>3306000000</v>
-      </c>
-    </row>
-    <row r="382" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B382" s="2" t="s">
-        <v>946</v>
-      </c>
-      <c r="C382" t="s">
-        <v>946</v>
-      </c>
-      <c r="D382" t="s">
-        <v>946</v>
-      </c>
-      <c r="E382" t="s">
-        <v>946</v>
-      </c>
-      <c r="F382" s="2" t="s">
-        <v>1034</v>
-      </c>
-      <c r="G382" s="2">
-        <v>3301290500</v>
-      </c>
-    </row>
-    <row r="383" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B383" s="2" t="s">
-        <v>947</v>
-      </c>
-      <c r="C383" t="s">
-        <v>947</v>
-      </c>
-      <c r="D383" t="s">
-        <v>947</v>
-      </c>
-      <c r="E383" t="s">
-        <v>947</v>
-      </c>
-      <c r="F383" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="G383" s="2">
-        <v>3301080000</v>
-      </c>
-    </row>
-    <row r="384" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B384" s="2" t="s">
-        <v>948</v>
-      </c>
-      <c r="C384" t="s">
-        <v>948</v>
-      </c>
-      <c r="D384" t="s">
-        <v>948</v>
-      </c>
-      <c r="E384" t="s">
-        <v>948</v>
-      </c>
-      <c r="F384" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="G384" s="2">
-        <v>3303010000</v>
-      </c>
-    </row>
-    <row r="385" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B385" s="2" t="s">
-        <v>949</v>
-      </c>
-      <c r="C385" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D385" t="s">
-        <v>990</v>
-      </c>
-      <c r="E385" t="s">
-        <v>990</v>
-      </c>
-      <c r="F385" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="G385" s="2">
-        <v>3303010000</v>
       </c>
     </row>
   </sheetData>
@@ -12520,726 +10533,4 @@
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4B1798E-0DA7-46BE-81EC-2BEC2C7147FF}">
-  <dimension ref="A1:C67"/>
-  <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C67"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>859</v>
-      </c>
-      <c r="C1" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>861</v>
-      </c>
-      <c r="C2" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>863</v>
-      </c>
-      <c r="C3" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>865</v>
-      </c>
-      <c r="C4" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>41</v>
-      </c>
-      <c r="B5" t="s">
-        <v>867</v>
-      </c>
-      <c r="C5" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>87</v>
-      </c>
-      <c r="B6" t="s">
-        <v>869</v>
-      </c>
-      <c r="C6" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>92</v>
-      </c>
-      <c r="C7" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>151</v>
-      </c>
-      <c r="B8" t="s">
-        <v>872</v>
-      </c>
-      <c r="C8" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>155</v>
-      </c>
-      <c r="C9" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>209</v>
-      </c>
-      <c r="C10" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>259</v>
-      </c>
-      <c r="B11" t="s">
-        <v>876</v>
-      </c>
-      <c r="C11" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>268</v>
-      </c>
-      <c r="B12" t="s">
-        <v>863</v>
-      </c>
-      <c r="C12" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>307</v>
-      </c>
-      <c r="C13" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>429</v>
-      </c>
-      <c r="C14" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>551</v>
-      </c>
-      <c r="B15" t="s">
-        <v>881</v>
-      </c>
-      <c r="C15" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>668</v>
-      </c>
-      <c r="C16" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>731</v>
-      </c>
-      <c r="B17" t="s">
-        <v>884</v>
-      </c>
-      <c r="C17" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>824</v>
-      </c>
-      <c r="B18" t="s">
-        <v>886</v>
-      </c>
-      <c r="C18" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>834</v>
-      </c>
-      <c r="C19" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>838</v>
-      </c>
-      <c r="C20" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>1065</v>
-      </c>
-      <c r="C21" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>1084</v>
-      </c>
-      <c r="C22" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>1091</v>
-      </c>
-      <c r="B23" t="s">
-        <v>892</v>
-      </c>
-      <c r="C23" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>1637</v>
-      </c>
-      <c r="B24" t="s">
-        <v>894</v>
-      </c>
-      <c r="C24" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>1680</v>
-      </c>
-      <c r="B25" t="s">
-        <v>867</v>
-      </c>
-      <c r="C25" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>1685</v>
-      </c>
-      <c r="B26" t="s">
-        <v>897</v>
-      </c>
-      <c r="C26" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>1695</v>
-      </c>
-      <c r="B27" t="s">
-        <v>865</v>
-      </c>
-      <c r="C27" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>1720</v>
-      </c>
-      <c r="B28" t="s">
-        <v>900</v>
-      </c>
-      <c r="C28" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>1725</v>
-      </c>
-      <c r="B29" t="s">
-        <v>876</v>
-      </c>
-      <c r="C29" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>1743</v>
-      </c>
-      <c r="B30" t="s">
-        <v>886</v>
-      </c>
-      <c r="C30" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>1756</v>
-      </c>
-      <c r="B31" t="s">
-        <v>886</v>
-      </c>
-      <c r="C31" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>1812</v>
-      </c>
-      <c r="B32" t="s">
-        <v>905</v>
-      </c>
-      <c r="C32" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>1826</v>
-      </c>
-      <c r="B33" t="s">
-        <v>863</v>
-      </c>
-      <c r="C33" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>1861</v>
-      </c>
-      <c r="B34" t="s">
-        <v>908</v>
-      </c>
-      <c r="C34" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>1930</v>
-      </c>
-      <c r="B35" t="s">
-        <v>865</v>
-      </c>
-      <c r="C35" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>2085</v>
-      </c>
-      <c r="B36" t="s">
-        <v>897</v>
-      </c>
-      <c r="C36" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>2104</v>
-      </c>
-      <c r="B37" t="s">
-        <v>912</v>
-      </c>
-      <c r="C37" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>2145</v>
-      </c>
-      <c r="B38" t="s">
-        <v>886</v>
-      </c>
-      <c r="C38" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>2169</v>
-      </c>
-      <c r="B39" t="s">
-        <v>867</v>
-      </c>
-      <c r="C39" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>2231</v>
-      </c>
-      <c r="B40" t="s">
-        <v>897</v>
-      </c>
-      <c r="C40" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>2250</v>
-      </c>
-      <c r="B41" t="s">
-        <v>897</v>
-      </c>
-      <c r="C41" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>2316</v>
-      </c>
-      <c r="B42" t="s">
-        <v>876</v>
-      </c>
-      <c r="C42" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>2382</v>
-      </c>
-      <c r="B43" t="s">
-        <v>919</v>
-      </c>
-      <c r="C43" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>2465</v>
-      </c>
-      <c r="B44" t="s">
-        <v>905</v>
-      </c>
-      <c r="C44" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>2514</v>
-      </c>
-      <c r="B45" t="s">
-        <v>922</v>
-      </c>
-      <c r="C45" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>2515</v>
-      </c>
-      <c r="B46" t="s">
-        <v>924</v>
-      </c>
-      <c r="C46" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>2621</v>
-      </c>
-      <c r="B47" t="s">
-        <v>926</v>
-      </c>
-      <c r="C47" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>2622</v>
-      </c>
-      <c r="B48" t="s">
-        <v>867</v>
-      </c>
-      <c r="C48" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>2635</v>
-      </c>
-      <c r="B49" t="s">
-        <v>892</v>
-      </c>
-      <c r="C49" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>2692</v>
-      </c>
-      <c r="B50" t="s">
-        <v>930</v>
-      </c>
-      <c r="C50" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>2694</v>
-      </c>
-      <c r="B51" t="s">
-        <v>863</v>
-      </c>
-      <c r="C51" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>2755</v>
-      </c>
-      <c r="B52" t="s">
-        <v>867</v>
-      </c>
-      <c r="C52" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>2803</v>
-      </c>
-      <c r="B53" t="s">
-        <v>886</v>
-      </c>
-      <c r="C53" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>2818</v>
-      </c>
-      <c r="B54" t="s">
-        <v>897</v>
-      </c>
-      <c r="C54" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>2825</v>
-      </c>
-      <c r="B55" t="s">
-        <v>886</v>
-      </c>
-      <c r="C55" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>2846</v>
-      </c>
-      <c r="B56" t="s">
-        <v>872</v>
-      </c>
-      <c r="C56" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>2856</v>
-      </c>
-      <c r="B57" t="s">
-        <v>900</v>
-      </c>
-      <c r="C57" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>2857</v>
-      </c>
-      <c r="B58" t="s">
-        <v>863</v>
-      </c>
-      <c r="C58" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>2936</v>
-      </c>
-      <c r="B59" t="s">
-        <v>940</v>
-      </c>
-      <c r="C59" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>2963</v>
-      </c>
-      <c r="B60" t="s">
-        <v>886</v>
-      </c>
-      <c r="C60" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>2968</v>
-      </c>
-      <c r="B61" t="s">
-        <v>897</v>
-      </c>
-      <c r="C61" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>3007</v>
-      </c>
-      <c r="B62" t="s">
-        <v>872</v>
-      </c>
-      <c r="C62" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>3158</v>
-      </c>
-      <c r="B63" t="s">
-        <v>872</v>
-      </c>
-      <c r="C63" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>3162</v>
-      </c>
-      <c r="B64" t="s">
-        <v>919</v>
-      </c>
-      <c r="C64" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>3208</v>
-      </c>
-      <c r="B65" t="s">
-        <v>897</v>
-      </c>
-      <c r="C65" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <v>3225</v>
-      </c>
-      <c r="B66" t="s">
-        <v>863</v>
-      </c>
-      <c r="C66" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>3289</v>
-      </c>
-      <c r="B67" t="s">
-        <v>876</v>
-      </c>
-      <c r="C67" t="s">
-        <v>949</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>